--- a/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -8,10 +8,10 @@
     <sheet name="BOLETÍN CUADRO 1.4" sheetId="1" r:id="rId1"/>
     <sheet name="RIR(2) y (RIR)" sheetId="2" r:id="rId2"/>
     <sheet name="REP INSTITUCION (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="ASEGURADORA POR EMISOR" sheetId="4" r:id="rId4"/>
+    <sheet name="ASEGURADORA REP EMISOR" sheetId="4" r:id="rId4"/>
     <sheet name="BOLETÍN CUADRO 1.5" sheetId="5" r:id="rId5"/>
     <sheet name="TGN-BCB" sheetId="6" r:id="rId6"/>
-    <sheet name="REP EMISOR" sheetId="7" r:id="rId7"/>
+    <sheet name="POR EMISOR" sheetId="7" r:id="rId7"/>
     <sheet name="DPF POR PLAZO" sheetId="8" r:id="rId8"/>
     <sheet name="REP INSTRUMENTO" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
   </si>
@@ -81,144 +81,141 @@
     </r>
   </si>
   <si>
+    <t>SEGUROS DE PERSONAS</t>
+  </si>
+  <si>
+    <t>INVERSIONES QUE RESPALDAN LOS RECURSOS DE INVERSIÓN REQUERIDOS 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>EXPRESADO EN $US</t>
+  </si>
+  <si>
+    <t>CARTERA DE INVERSION</t>
+  </si>
+  <si>
+    <t>BUP</t>
+  </si>
+  <si>
+    <t>LBC</t>
+  </si>
+  <si>
+    <t>NAL</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>CRS</t>
+  </si>
+  <si>
+    <t>UVD</t>
+  </si>
+  <si>
+    <t>SVF</t>
+  </si>
+  <si>
+    <t>SCV</t>
+  </si>
+  <si>
+    <t>Bienes Raíces</t>
+  </si>
+  <si>
+    <t>Construcción de Vivienda no Suntuaria</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>Préstamos Con Garantía de Pólizas</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>CRU</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>SEGUROS PREPAGO</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>INVERSIONES POR TIPO INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>TOTAL SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>CARTERA A VALOR DE MERCADO AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>EN DOLARES ESTADOUNIDENSES</t>
+  </si>
+  <si>
+    <t>INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>LA BOLIVIANA CIACRUZ DE SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS Y REASEGUROS CREDINFORM INTERNATIONAL S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS ILLIMANI S.A.</t>
+  </si>
+  <si>
+    <t>ALIANZA COMPAÑÍA DE SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>BISA SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>COMPAÑÍA DE SEGUROS Y REASEGUROS FORTALEZA S.A.</t>
+  </si>
+  <si>
+    <t>NACIONAL SEGUROS PATRIMONIALES Y FIANZAS S.A.</t>
+  </si>
+  <si>
+    <t>CREDISEGURO S.A. SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>MERCANTIL SANTA CRUZ SEGUROS Y REASEGUROS GENERALES S.A.</t>
+  </si>
+  <si>
+    <t>PORCENTAJE (%)</t>
+  </si>
+  <si>
+    <t>TOTAL SEGUROS DE PERSONAS</t>
+  </si>
+  <si>
     <t>SEGUROS PERSONALES</t>
   </si>
   <si>
-    <t>INVERSIONES QUE RESPALDAN LOS RECURSOS DE INVERSIÓN REQUERIDOS 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>EXPRESADO EN $US</t>
-  </si>
-  <si>
-    <t>CARTERA DE INVERSION</t>
-  </si>
-  <si>
-    <t>BUP</t>
-  </si>
-  <si>
-    <t>LBC</t>
-  </si>
-  <si>
-    <t>NAL</t>
-  </si>
-  <si>
-    <t>ALI</t>
-  </si>
-  <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>UVD</t>
-  </si>
-  <si>
-    <t>SVF</t>
-  </si>
-  <si>
-    <t>SCV</t>
-  </si>
-  <si>
-    <t>Bienes Raíces</t>
-  </si>
-  <si>
-    <t>Construcción de Vivienda no Suntuaria</t>
-  </si>
-  <si>
-    <t>Disponible</t>
-  </si>
-  <si>
-    <t>Préstamos Con Garantía de Pólizas</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>BIS</t>
-  </si>
-  <si>
-    <t>CRU</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>SEGUROS PREPAGO</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>INVERSIONES POR TIPO INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>TOTAL SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>CARTERA A VALOR DE MERCADO AL 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>EN DOLARES ESTADOUNIDENSES</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>LA BOLIVIANA CIACRUZ DE SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>SEGUROS Y REASEGUROS CREDINFORM INTERNATIONAL S.A.</t>
-  </si>
-  <si>
-    <t>SEGUROS ILLIMANI S.A.</t>
-  </si>
-  <si>
-    <t>ALIANZA COMPAÑÍA DE SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>BISA SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>COMPAÑÍA DE SEGUROS Y REASEGUROS FORTALEZA S.A.</t>
-  </si>
-  <si>
-    <t>NACIONAL SEGUROS PATRIMONIALES Y FIANZAS S.A.</t>
-  </si>
-  <si>
-    <t>CREDISEGURO S.A. SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>MERCANTIL SANTA CRUZ SEGUROS Y REASEGUROS GENERALES S.A.</t>
-  </si>
-  <si>
-    <t>PORCENTAJE (%)</t>
-  </si>
-  <si>
-    <t>30/06/2022</t>
-  </si>
-  <si>
-    <t>TOTAL SEGUROS PERSONALES</t>
-  </si>
-  <si>
     <t>BUPA INSURANCE (BOLIVIA) S.A.</t>
   </si>
   <si>
@@ -480,9 +477,6 @@
     <t/>
   </si>
   <si>
-    <t>SEGUROS DE PERSONAS</t>
-  </si>
-  <si>
     <t>INVERSIONES QUE RESPALDAN LOS RECURSOS DE INVERSIÓN REQUERIDOS</t>
   </si>
   <si>
@@ -546,7 +540,7 @@
     <t>POR PLAZO ECONÓMICO</t>
   </si>
   <si>
-    <t>TOTAL Seguros Personales</t>
+    <t>TOTAL Seguros de Personas</t>
   </si>
 </sst>
 </file>
@@ -662,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,12 +717,6 @@
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,28 +1830,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="80" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="75" customWidth="1"/>
-    <col min="7" max="7" width="71" customWidth="1"/>
-    <col min="8" max="8" width="77" customWidth="1"/>
-    <col min="9" max="9" width="75" customWidth="1"/>
-    <col min="10" max="10" width="72" customWidth="1"/>
-    <col min="11" max="11" width="90" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="79" customWidth="1"/>
+    <col min="3" max="3" width="80" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="75" customWidth="1"/>
+    <col min="6" max="6" width="71" customWidth="1"/>
+    <col min="7" max="7" width="77" customWidth="1"/>
+    <col min="8" max="8" width="75" customWidth="1"/>
+    <col min="9" max="9" width="72" customWidth="1"/>
+    <col min="10" max="10" width="90" customWidth="1"/>
+    <col min="11" max="11" width="31" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1878,9 +1865,8 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1895,9 +1881,8 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,9 +1897,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -1929,18 +1913,15 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1950,11 +1931,12 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
@@ -1980,22 +1962,19 @@
         <v>57</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="B13" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" s="14" t="n">
         <v>0</v>
       </c>
@@ -2003,40 +1982,37 @@
         <v>0</v>
       </c>
       <c r="E13" s="14" t="n">
-        <v>0</v>
+        <v>3391537.794460641</v>
       </c>
       <c r="F13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="14" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" s="14" t="n">
-        <v>3391537.794460641</v>
-      </c>
-      <c r="M13" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="B14" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C14" s="14" t="n">
         <v>0</v>
       </c>
@@ -2044,40 +2020,37 @@
         <v>0</v>
       </c>
       <c r="E14" s="14" t="n">
-        <v>0</v>
+        <v>3377585.192419825</v>
       </c>
       <c r="F14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="14" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" s="14" t="n">
-        <v>3377585.192419825</v>
-      </c>
-      <c r="M14" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B15" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C15" s="14" t="n">
         <v>0</v>
       </c>
@@ -2085,40 +2058,37 @@
         <v>0</v>
       </c>
       <c r="E15" s="14" t="n">
-        <v>0</v>
+        <v>3499730.966472303</v>
       </c>
       <c r="F15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="14" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" s="14" t="n">
-        <v>3499730.966472303</v>
-      </c>
-      <c r="M15" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="B16" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C16" s="14" t="n">
         <v>0</v>
       </c>
@@ -2126,40 +2096,37 @@
         <v>0</v>
       </c>
       <c r="E16" s="14" t="n">
-        <v>0</v>
+        <v>4350203.702623907</v>
       </c>
       <c r="F16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="14" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" s="14" t="n">
-        <v>4350203.702623907</v>
-      </c>
-      <c r="M16" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B17" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C17" s="14" t="n">
         <v>0</v>
       </c>
@@ -2167,40 +2134,37 @@
         <v>0</v>
       </c>
       <c r="E17" s="14" t="n">
-        <v>0</v>
+        <v>25869559.001457725</v>
       </c>
       <c r="F17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="14" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" s="14" t="n">
-        <v>25869559.001457725</v>
-      </c>
-      <c r="M17" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="B18" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="C18" s="14" t="n">
         <v>0</v>
       </c>
@@ -2208,30 +2172,27 @@
         <v>0</v>
       </c>
       <c r="E18" s="14" t="n">
-        <v>0</v>
+        <v>1981554</v>
       </c>
       <c r="F18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="14" t="n">
         <v>1981554</v>
       </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" s="14" t="n">
-        <v>1981554</v>
-      </c>
-      <c r="M18" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2255,11 +2216,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2272,9 +2232,8 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -2289,9 +2248,8 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -2306,18 +2264,15 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2327,11 +2282,12 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
@@ -2357,13 +2313,10 @@
         <v>69</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2371,7 +2324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -2379,19 +2332,17 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2399,9 +2350,8 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2409,36 +2359,31 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2446,7 +2391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2455,20 +2400,18 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2477,9 +2420,8 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
@@ -2488,26 +2430,24 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
       </c>
@@ -2515,150 +2455,129 @@
         <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10" t="s">
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B46" s="14" t="n">
+        <v>25869559.001457725</v>
+      </c>
       <c r="C46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="14" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="D46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F46" s="14" t="n">
-        <v>25869559.001457725</v>
-      </c>
-      <c r="G46" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="B47" s="14" t="n">
+        <v>3499730.966472303</v>
+      </c>
       <c r="C47" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="14" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="D47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F47" s="14" t="n">
-        <v>3499730.966472303</v>
-      </c>
-      <c r="G47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="B48" s="14" t="n">
+        <v>3377585.192419825</v>
+      </c>
       <c r="C48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="14" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="D48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F48" s="14" t="n">
-        <v>3377585.192419825</v>
-      </c>
-      <c r="G48" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
         <v>8</v>
       </c>
+      <c r="B49" s="14" t="n">
+        <v>3391537.794460641</v>
+      </c>
       <c r="C49" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="14" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="D49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F49" s="14" t="n">
-        <v>3391537.794460641</v>
-      </c>
-      <c r="G49" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="B50" s="14" t="n">
+        <v>1981554</v>
+      </c>
       <c r="C50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="14" t="n">
         <v>1981554</v>
       </c>
-      <c r="D50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F50" s="14" t="n">
-        <v>1981554</v>
-      </c>
-      <c r="G50" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="B51" s="14" t="n">
+        <v>4350203.702623907</v>
+      </c>
       <c r="C51" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="14" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="D51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" s="14" t="n">
-        <v>4350203.702623907</v>
-      </c>
-      <c r="G51" s="14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2668,14 +2587,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:M10"/>
+  <mergeCells count="55">
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B12:B12"/>
     <mergeCell ref="C12:C12"/>
     <mergeCell ref="D12:D12"/>
     <mergeCell ref="E12:E12"/>
@@ -2686,14 +2605,13 @@
     <mergeCell ref="J12:J12"/>
     <mergeCell ref="K12:K12"/>
     <mergeCell ref="L12:L12"/>
-    <mergeCell ref="M12:M12"/>
-    <mergeCell ref="A22:M22"/>
-    <mergeCell ref="A23:M23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:M25"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B27:B27"/>
     <mergeCell ref="C27:C27"/>
     <mergeCell ref="D27:D27"/>
     <mergeCell ref="E27:E27"/>
@@ -2704,30 +2622,27 @@
     <mergeCell ref="J27:J27"/>
     <mergeCell ref="K27:K27"/>
     <mergeCell ref="L27:L27"/>
-    <mergeCell ref="M27:M27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:B36"/>
     <mergeCell ref="C36:C36"/>
     <mergeCell ref="D36:D36"/>
     <mergeCell ref="E36:E36"/>
-    <mergeCell ref="F36:F36"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:B45"/>
     <mergeCell ref="C45:C45"/>
     <mergeCell ref="D45:D45"/>
     <mergeCell ref="E45:E45"/>
     <mergeCell ref="F45:F45"/>
-    <mergeCell ref="G45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2736,28 +2651,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2768,11 +2682,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2783,11 +2696,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2798,11 +2710,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2813,1164 +2724,1066 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>4.080291870473163</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>4.080291870473163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>4.080291870473163</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>4.080291870473163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="n">
+        <v>2203068.98</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>5.18733253669828</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>2203068.98</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>5.18733253669828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>2203068.98</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>5.18733253669828</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>2203068.98</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>5.18733253669828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="n">
+        <v>4375993.23</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>10.303686479372242</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>4375993.23</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>10.303686479372242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>4375993.23</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>10.303686479372242</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>4375993.23</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>10.303686479372242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="14" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>0.24233180241349744</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>0.24233180241349744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="14" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>0.24233180241349744</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="K16" s="14" t="n">
-        <v>0.24233180241349744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="14" t="n">
+        <v>808004.38</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>1.9025220945050576</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <v>808004.38</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>1.9025220945050576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>808004.38</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>1.9025220945050576</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>808004.38</v>
-      </c>
-      <c r="K17" s="14" t="n">
-        <v>1.9025220945050576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="n">
+        <v>3854963.95</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>9.07687417287947</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <v>3854963.95</v>
+      </c>
+      <c r="J18" s="14" t="n">
+        <v>9.07687417287947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>3854963.95</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>9.07687417287947</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v>3854963.95</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>9.07687417287947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="14" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>0.22345987447155688</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>0.22345987447155688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>94903.79</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>0.22345987447155688</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="n">
-        <v>94903.79</v>
-      </c>
-      <c r="K19" s="14" t="n">
-        <v>0.22345987447155688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="n">
+        <v>574559.05</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>1.3528531704529079</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="n">
+        <v>574559.05</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>1.3528531704529079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>574559.05</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>1.3528531704529079</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="n">
-        <v>574559.05</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>1.3528531704529079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="14" t="n">
+        <v>3675452.76</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>8.654198239877852</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="n">
+        <v>3675452.76</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>8.654198239877852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>3675452.76</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>8.654198239877852</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v>3675452.76</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>8.654198239877852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="14" t="n">
+        <v>3493693.84</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>8.226229815779238</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>3493693.84</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>8.226229815779238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v>3493693.84</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v>8.226229815779238</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14" t="n">
-        <v>3493693.84</v>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v>8.226229815779238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="14" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>2.2603281680621947</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>2.2603281680621947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <v>2.2603281680621947</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>2.2603281680621947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="14" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>5.13143784722029</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>5.13143784722029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>2179330.41</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>5.13143784722029</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14" t="n">
-        <v>2179330.41</v>
-      </c>
-      <c r="K24" s="14" t="n">
-        <v>5.13143784722029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="14" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1.3884903477279742</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>1.3884903477279742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <v>1.3884903477279742</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>1.3884903477279742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="14" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>1.1348855508153899</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>1.1348855508153899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>481987.83</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <v>1.1348855508153899</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="n">
-        <v>481987.83</v>
-      </c>
-      <c r="K26" s="14" t="n">
-        <v>1.1348855508153899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="14" t="n">
+        <v>2534501.59</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>5.967721701623942</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>2534501.59</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>5.967721701623942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" s="14" t="n">
-        <v>2534501.59</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <v>5.967721701623942</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="n">
-        <v>2534501.59</v>
-      </c>
-      <c r="K27" s="14" t="n">
-        <v>5.967721701623942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="14" t="n">
+        <v>359420.87</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>0.8462901480821552</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14" t="n">
+        <v>359420.87</v>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>0.8462901480821552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D28" s="14" t="n">
-        <v>359420.87</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>0.8462901480821552</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="14" t="n">
-        <v>359420.87</v>
-      </c>
-      <c r="K28" s="14" t="n">
-        <v>0.8462901480821552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="14" t="n">
+        <v>2010443.87</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>4.733778649117291</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="n">
+        <v>2010443.87</v>
+      </c>
+      <c r="J29" s="14" t="n">
+        <v>4.733778649117291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="14" t="n">
-        <v>2010443.87</v>
-      </c>
-      <c r="E29" s="14" t="n">
-        <v>4.733778649117291</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="14" t="n">
-        <v>2010443.87</v>
-      </c>
-      <c r="K29" s="14" t="n">
-        <v>4.733778649117291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="14" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>1.0232803717315133</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>1.0232803717315133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <v>1.0232803717315133</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="14" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="K30" s="14" t="n">
-        <v>1.0232803717315133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="14" t="n">
+        <v>2859566.67</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>6.733117919961341</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>2859566.67</v>
+      </c>
+      <c r="J31" s="14" t="n">
+        <v>6.733117919961341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D31" s="14" t="n">
-        <v>2859566.67</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <v>6.733117919961341</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="14" t="n">
-        <v>2859566.67</v>
-      </c>
-      <c r="K31" s="14" t="n">
-        <v>6.733117919961341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="14" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>1.130993430828372</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="J32" s="14" t="n">
+        <v>1.130993430828372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" s="14" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <v>1.130993430828372</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="14" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="K32" s="14" t="n">
-        <v>1.130993430828372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>0.17550819522678518</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="J33" s="14" t="n">
+        <v>0.17550819522678518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D33" s="14" t="n">
-        <v>74538.63</v>
-      </c>
-      <c r="E33" s="14" t="n">
-        <v>0.17550819522678518</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="14" t="n">
-        <v>74538.63</v>
-      </c>
-      <c r="K33" s="14" t="n">
-        <v>0.17550819522678518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="14" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>0.9581896984815128</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="J34" s="14" t="n">
+        <v>0.9581896984815128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="14" t="n">
-        <v>406944.8</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <v>0.9581896984815128</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="14" t="n">
-        <v>406944.8</v>
-      </c>
-      <c r="K34" s="14" t="n">
-        <v>0.9581896984815128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="14" t="n">
+        <v>4061202.08</v>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>9.562481192799842</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>4061202.08</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>9.562481192799842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" s="14" t="n">
-        <v>4061202.08</v>
-      </c>
-      <c r="E35" s="14" t="n">
-        <v>9.562481192799842</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="14" t="n">
-        <v>4061202.08</v>
-      </c>
-      <c r="K35" s="14" t="n">
-        <v>9.562481192799842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>0.17462748296600675</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.17462748296600675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="14" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="E36" s="14" t="n">
-        <v>0.17462748296600675</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="14" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="K36" s="14" t="n">
-        <v>0.17462748296600675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="n">
+        <v>202964</v>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>0.4778977737585092</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>202964</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>0.4778977737585092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>202964</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>0.4778977737585092</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="n">
-        <v>202964</v>
-      </c>
-      <c r="K37" s="14" t="n">
-        <v>0.4778977737585092</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="14" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>0.2118877994694113</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0.2118877994694113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="14" t="n">
-        <v>89989.11</v>
-      </c>
-      <c r="E38" s="14" t="n">
-        <v>0.2118877994694113</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="14" t="n">
-        <v>89989.11</v>
-      </c>
-      <c r="K38" s="14" t="n">
-        <v>0.2118877994694113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="14" t="n">
+        <v>1147492.48</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>2.7018786661507983</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>1147492.48</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>2.7018786661507983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="14" t="n">
-        <v>1147492.48</v>
-      </c>
-      <c r="E39" s="14" t="n">
-        <v>2.7018786661507983</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="n">
-        <v>1147492.48</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>2.7018786661507983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="n">
+        <v>729695.25</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>1.718135903397444</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>729695.25</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>1.718135903397444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>729695.25</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>1.718135903397444</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="14" t="n">
-        <v>729695.25</v>
-      </c>
-      <c r="K40" s="14" t="n">
-        <v>1.718135903397444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="14" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>0.15231250316445633</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="J41" s="14" t="n">
+        <v>0.15231250316445633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D41" s="14" t="n">
-        <v>64687.38</v>
-      </c>
-      <c r="E41" s="14" t="n">
-        <v>0.15231250316445633</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="14" t="n">
-        <v>64687.38</v>
-      </c>
-      <c r="K41" s="14" t="n">
-        <v>0.15231250316445633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="14" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>2.48619730999037</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="J42" s="14" t="n">
+        <v>2.48619730999037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D42" s="14" t="n">
-        <v>1055892.24</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>2.48619730999037</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="14" t="n">
-        <v>1055892.24</v>
-      </c>
-      <c r="K42" s="14" t="n">
-        <v>2.48619730999037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="14" t="n">
+        <v>756300</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>1.7807792825011357</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="n">
+        <v>756300</v>
+      </c>
+      <c r="J43" s="14" t="n">
+        <v>1.7807792825011357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="14" t="n">
-        <v>756300</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>1.7807792825011357</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>756300</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>1.7807792825011357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>148</v>
+      <c r="C44" s="26" t="n">
+        <v>42470170.64</v>
       </c>
       <c r="D44" s="26" t="n">
-        <v>42470170.64</v>
+        <v>100</v>
       </c>
       <c r="E44" s="26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="26" t="n">
         <v>0</v>
@@ -3985,9 +3798,6 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3997,26 +3807,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
+  <mergeCells count="18">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:C12"/>
     <mergeCell ref="D12:D12"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:E12"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:F12"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:G12"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:H12"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:I12"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:J12"/>
-    <mergeCell ref="K12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4046,7 +3855,7 @@
   <sheetData>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4060,7 +3869,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4074,7 +3883,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4088,7 +3897,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -4332,7 +4141,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4347,7 +4156,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4362,7 +4171,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -4550,7 +4359,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4558,7 +4367,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4566,7 +4375,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>42</v>
@@ -4683,75 +4492,68 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4760,17 +4562,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
+  <mergeCells count="9">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:A10"/>
     <mergeCell ref="B10:B10"/>
     <mergeCell ref="C10:C10"/>
     <mergeCell ref="D10:D10"/>
     <mergeCell ref="E10:E10"/>
     <mergeCell ref="F10:F10"/>
-    <mergeCell ref="G10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4793,7 +4594,7 @@
   <sheetData>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4801,7 +4602,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4817,16 +4618,16 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4845,7 +4646,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>0</v>
@@ -4859,7 +4660,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="14" t="n">
         <v>17282207.78</v>
@@ -4873,7 +4674,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
@@ -4901,7 +4702,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>15319103.31</v>
@@ -4915,7 +4716,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="14" t="n">
         <v>0</v>
@@ -4929,7 +4730,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="14" t="n">
         <v>0</v>
@@ -4943,7 +4744,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="14" t="n">
         <v>0</v>
@@ -4957,7 +4758,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>22945911.79</v>
@@ -4971,7 +4772,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="14" t="n">
         <v>0</v>
@@ -4985,7 +4786,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="14" t="n">
         <v>0</v>
@@ -4999,7 +4800,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" s="14" t="n">
         <v>4045302.35</v>
@@ -5013,7 +4814,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>0</v>
@@ -5027,7 +4828,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B25" s="14" t="n">
         <v>0</v>
@@ -5041,7 +4842,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>0</v>
@@ -5055,7 +4856,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="14" t="n">
         <v>13074033.18</v>
@@ -5069,7 +4870,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>0</v>
@@ -5083,7 +4884,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="14" t="n">
         <v>2494569.03</v>
@@ -5097,7 +4898,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>0</v>
@@ -5111,7 +4912,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>0</v>
@@ -5125,7 +4926,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B32" s="14" t="n">
         <v>2791641.33</v>
@@ -5139,7 +4940,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>0</v>
@@ -5153,7 +4954,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>0</v>
@@ -5167,7 +4968,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="14" t="n">
         <v>1392333.04</v>
@@ -5181,7 +4982,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B36" s="14" t="n">
         <v>0</v>
@@ -5195,7 +4996,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="14" t="n">
         <v>7871798.41</v>
@@ -5209,7 +5010,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>0</v>
@@ -5223,7 +5024,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B39" s="14" t="n">
         <v>0</v>
@@ -5237,7 +5038,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>0</v>
@@ -5251,7 +5052,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="14" t="n">
         <v>5188218</v>
@@ -5312,7 +5113,7 @@
   <sheetData>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5326,25 +5127,25 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="14" t="n">
         <v>370</v>
@@ -5355,7 +5156,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>721</v>
@@ -5366,7 +5167,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" s="14" t="n">
         <v>901</v>
@@ -5377,7 +5178,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>4070</v>
@@ -5388,7 +5189,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="14" t="n">
         <v>360</v>
@@ -5399,7 +5200,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>540</v>
@@ -5410,7 +5211,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="14" t="n">
         <v>720</v>
@@ -5443,7 +5244,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="14" t="n">
         <v>370</v>
@@ -5454,7 +5255,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="14" t="n">
         <v>400</v>
@@ -5465,7 +5266,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="14" t="n">
         <v>540</v>
@@ -5476,7 +5277,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="14" t="n">
         <v>720</v>
@@ -5487,7 +5288,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="14" t="n">
         <v>600</v>
@@ -5498,7 +5299,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="14" t="n">
         <v>2160</v>
@@ -5509,7 +5310,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="14" t="n">
         <v>1766</v>
@@ -5520,7 +5321,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" s="14" t="n">
         <v>1796</v>
@@ -5531,7 +5332,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="14" t="n">
         <v>1797</v>
@@ -5542,7 +5343,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="14" t="n">
         <v>3653</v>
@@ -5553,7 +5354,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="14" t="n">
         <v>360</v>
@@ -5564,7 +5365,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="14" t="n">
         <v>390</v>
@@ -5575,7 +5376,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="14" t="n">
         <v>391</v>
@@ -5586,7 +5387,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="14" t="n">
         <v>392</v>
@@ -5597,7 +5398,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="14" t="n">
         <v>1080</v>
@@ -5608,7 +5409,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="14" t="n">
         <v>1200</v>
@@ -5619,7 +5420,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="14" t="n">
         <v>362</v>
@@ -5630,7 +5431,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="14" t="n">
         <v>363</v>
@@ -5641,7 +5442,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="14" t="n">
         <v>721</v>
@@ -5652,7 +5453,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="14" t="n">
         <v>390</v>
@@ -5663,7 +5464,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="14" t="n">
         <v>721</v>
@@ -5674,7 +5475,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="14" t="n">
         <v>1080</v>
@@ -5685,7 +5486,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="14" t="n">
         <v>92</v>
@@ -5696,7 +5497,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B43" s="14" t="n">
         <v>4319</v>
@@ -5707,7 +5508,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B44" s="14" t="n">
         <v>4320</v>
@@ -5718,7 +5519,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B45" s="14" t="n">
         <v>3607</v>
@@ -5729,7 +5530,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="14" t="n">
         <v>3614</v>
@@ -5745,7 +5546,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5759,25 +5560,25 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="14" t="n">
         <v>126</v>
@@ -5788,7 +5589,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="14" t="n">
         <v>676</v>
@@ -5799,7 +5600,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="14" t="n">
         <v>886</v>
@@ -5810,7 +5611,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" s="14" t="n">
         <v>1845</v>
@@ -5821,7 +5622,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="14" t="n">
         <v>50</v>
@@ -5832,7 +5633,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" s="14" t="n">
         <v>293</v>
@@ -5843,7 +5644,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B60" s="14" t="n">
         <v>502</v>
@@ -5876,7 +5677,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="14" t="n">
         <v>263</v>
@@ -5887,7 +5688,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" s="14" t="n">
         <v>273</v>
@@ -5898,7 +5699,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B65" s="14" t="n">
         <v>300</v>
@@ -5909,7 +5710,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B66" s="14" t="n">
         <v>509</v>
@@ -5920,7 +5721,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="14" t="n">
         <v>138</v>
@@ -5931,7 +5732,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="14" t="n">
         <v>1482</v>
@@ -5942,7 +5743,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" s="14" t="n">
         <v>670</v>
@@ -5953,7 +5754,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" s="14" t="n">
         <v>721</v>
@@ -5964,7 +5765,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" s="14" t="n">
         <v>729</v>
@@ -5975,7 +5776,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="14" t="n">
         <v>747</v>
@@ -5986,7 +5787,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" s="14" t="n">
         <v>966</v>
@@ -5997,7 +5798,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B74" s="14" t="n">
         <v>176</v>
@@ -6008,7 +5809,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" s="14" t="n">
         <v>182</v>
@@ -6019,7 +5820,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" s="14" t="n">
         <v>211</v>
@@ -6030,7 +5831,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="14" t="n">
         <v>321</v>
@@ -6041,7 +5842,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B78" s="14" t="n">
         <v>326</v>
@@ -6052,7 +5853,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" s="14" t="n">
         <v>278</v>
@@ -6063,7 +5864,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="14" t="n">
         <v>270</v>
@@ -6074,7 +5875,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="14" t="n">
         <v>644</v>
@@ -6085,7 +5886,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B82" s="14" t="n">
         <v>264</v>
@@ -6096,7 +5897,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B83" s="14" t="n">
         <v>561</v>
@@ -6107,7 +5908,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B84" s="14" t="n">
         <v>1046</v>
@@ -6118,7 +5919,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" s="14" t="n">
         <v>1</v>
@@ -6129,7 +5930,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B86" s="14" t="n">
         <v>2304</v>
@@ -6140,7 +5941,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B87" s="14" t="n">
         <v>2309</v>
@@ -6151,7 +5952,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88" s="14" t="n">
         <v>2310</v>
@@ -6162,7 +5963,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="14" t="n">
         <v>2311</v>
@@ -6173,7 +5974,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90" s="14" t="n">
         <v>2316</v>
@@ -6184,7 +5985,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="14" t="n">
         <v>2321</v>
@@ -6220,26 +6021,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -6252,11 +6052,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6267,11 +6066,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6282,11 +6080,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6297,1164 +6094,1066 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="D13" s="14" t="n">
+        <v>4.080291870473163</v>
+      </c>
+      <c r="E13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14" t="n">
+        <v>1732906.92</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>4.080291870473163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>4.080291870473163</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>1732906.92</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>4.080291870473163</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="n">
+        <v>2203068.98</v>
+      </c>
+      <c r="D14" s="14" t="n">
+        <v>5.18733253669828</v>
+      </c>
+      <c r="E14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14" t="n">
+        <v>2203068.98</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>5.18733253669828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>2203068.98</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>5.18733253669828</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>2203068.98</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>5.18733253669828</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="n">
+        <v>4375993.23</v>
+      </c>
+      <c r="D15" s="14" t="n">
+        <v>10.303686479372242</v>
+      </c>
+      <c r="E15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="14" t="n">
+        <v>4375993.23</v>
+      </c>
+      <c r="J15" s="14" t="n">
+        <v>10.303686479372242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>4375993.23</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>10.303686479372242</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>4375993.23</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>10.303686479372242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="14" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="D16" s="14" t="n">
+        <v>0.24233180241349744</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14" t="n">
+        <v>102918.73</v>
+      </c>
+      <c r="J16" s="14" t="n">
+        <v>0.24233180241349744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="14" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="E16" s="14" t="n">
-        <v>0.24233180241349744</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>102918.73</v>
-      </c>
-      <c r="K16" s="14" t="n">
-        <v>0.24233180241349744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="14" t="n">
+        <v>808004.38</v>
+      </c>
+      <c r="D17" s="14" t="n">
+        <v>1.9025220945050576</v>
+      </c>
+      <c r="E17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="14" t="n">
+        <v>808004.38</v>
+      </c>
+      <c r="J17" s="14" t="n">
+        <v>1.9025220945050576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>808004.38</v>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v>1.9025220945050576</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>808004.38</v>
-      </c>
-      <c r="K17" s="14" t="n">
-        <v>1.9025220945050576</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="14" t="n">
+        <v>3854963.95</v>
+      </c>
+      <c r="D18" s="14" t="n">
+        <v>9.07687417287947</v>
+      </c>
+      <c r="E18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="n">
+        <v>3854963.95</v>
+      </c>
+      <c r="J18" s="14" t="n">
+        <v>9.07687417287947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>3854963.95</v>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v>9.07687417287947</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v>3854963.95</v>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v>9.07687417287947</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="14" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>0.22345987447155688</v>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v>94903.79</v>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v>0.22345987447155688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v>94903.79</v>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v>0.22345987447155688</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="n">
-        <v>94903.79</v>
-      </c>
-      <c r="K19" s="14" t="n">
-        <v>0.22345987447155688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="14" t="n">
+        <v>574559.05</v>
+      </c>
+      <c r="D20" s="14" t="n">
+        <v>1.3528531704529079</v>
+      </c>
+      <c r="E20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14" t="n">
+        <v>574559.05</v>
+      </c>
+      <c r="J20" s="14" t="n">
+        <v>1.3528531704529079</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>574559.05</v>
-      </c>
-      <c r="E20" s="14" t="n">
-        <v>1.3528531704529079</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="n">
-        <v>574559.05</v>
-      </c>
-      <c r="K20" s="14" t="n">
-        <v>1.3528531704529079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="14" t="n">
+        <v>3675452.76</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>8.654198239877852</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="14" t="n">
+        <v>3675452.76</v>
+      </c>
+      <c r="J21" s="14" t="n">
+        <v>8.654198239877852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>3675452.76</v>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v>8.654198239877852</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v>3675452.76</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>8.654198239877852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="14" t="n">
+        <v>3493693.84</v>
+      </c>
+      <c r="D22" s="14" t="n">
+        <v>8.226229815779238</v>
+      </c>
+      <c r="E22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="14" t="n">
+        <v>3493693.84</v>
+      </c>
+      <c r="J22" s="14" t="n">
+        <v>8.226229815779238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v>3493693.84</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v>8.226229815779238</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="14" t="n">
-        <v>3493693.84</v>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v>8.226229815779238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="14" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>2.2603281680621947</v>
+      </c>
+      <c r="E23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="14" t="n">
+        <v>959965.23</v>
+      </c>
+      <c r="J23" s="14" t="n">
+        <v>2.2603281680621947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <v>2.2603281680621947</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v>959965.23</v>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>2.2603281680621947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="14" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="D24" s="14" t="n">
+        <v>5.13143784722029</v>
+      </c>
+      <c r="E24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14" t="n">
+        <v>2179330.41</v>
+      </c>
+      <c r="J24" s="14" t="n">
+        <v>5.13143784722029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>2179330.41</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <v>5.13143784722029</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14" t="n">
-        <v>2179330.41</v>
-      </c>
-      <c r="K24" s="14" t="n">
-        <v>5.13143784722029</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="14" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>1.3884903477279742</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="14" t="n">
+        <v>589694.22</v>
+      </c>
+      <c r="J25" s="14" t="n">
+        <v>1.3884903477279742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <v>1.3884903477279742</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14" t="n">
-        <v>589694.22</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>1.3884903477279742</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="14" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>1.1348855508153899</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>481987.83</v>
+      </c>
+      <c r="J26" s="14" t="n">
+        <v>1.1348855508153899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="10" t="s">
         <v>113</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>481987.83</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <v>1.1348855508153899</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="n">
-        <v>481987.83</v>
-      </c>
-      <c r="K26" s="14" t="n">
-        <v>1.1348855508153899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="14" t="n">
+        <v>2534501.59</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>5.967721701623942</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>2534501.59</v>
+      </c>
+      <c r="J27" s="14" t="n">
+        <v>5.967721701623942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="D27" s="14" t="n">
-        <v>2534501.59</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <v>5.967721701623942</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="14" t="n">
-        <v>2534501.59</v>
-      </c>
-      <c r="K27" s="14" t="n">
-        <v>5.967721701623942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="14" t="n">
+        <v>359420.87</v>
+      </c>
+      <c r="D28" s="14" t="n">
+        <v>0.8462901480821552</v>
+      </c>
+      <c r="E28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14" t="n">
+        <v>359420.87</v>
+      </c>
+      <c r="J28" s="14" t="n">
+        <v>0.8462901480821552</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="D28" s="14" t="n">
-        <v>359420.87</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <v>0.8462901480821552</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="14" t="n">
-        <v>359420.87</v>
-      </c>
-      <c r="K28" s="14" t="n">
-        <v>0.8462901480821552</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="14" t="n">
+        <v>2010443.87</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>4.733778649117291</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="14" t="n">
+        <v>2010443.87</v>
+      </c>
+      <c r="J29" s="14" t="n">
+        <v>4.733778649117291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="D29" s="14" t="n">
-        <v>2010443.87</v>
-      </c>
-      <c r="E29" s="14" t="n">
-        <v>4.733778649117291</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="14" t="n">
-        <v>2010443.87</v>
-      </c>
-      <c r="K29" s="14" t="n">
-        <v>4.733778649117291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="14" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="D30" s="14" t="n">
+        <v>1.0232803717315133</v>
+      </c>
+      <c r="E30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="14" t="n">
+        <v>434588.92</v>
+      </c>
+      <c r="J30" s="14" t="n">
+        <v>1.0232803717315133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D30" s="14" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <v>1.0232803717315133</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="14" t="n">
-        <v>434588.92</v>
-      </c>
-      <c r="K30" s="14" t="n">
-        <v>1.0232803717315133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="14" t="n">
+        <v>2859566.67</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>6.733117919961341</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14" t="n">
+        <v>2859566.67</v>
+      </c>
+      <c r="J31" s="14" t="n">
+        <v>6.733117919961341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D31" s="14" t="n">
-        <v>2859566.67</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <v>6.733117919961341</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="14" t="n">
-        <v>2859566.67</v>
-      </c>
-      <c r="K31" s="14" t="n">
-        <v>6.733117919961341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="14" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="D32" s="14" t="n">
+        <v>1.130993430828372</v>
+      </c>
+      <c r="E32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="14" t="n">
+        <v>480334.84</v>
+      </c>
+      <c r="J32" s="14" t="n">
+        <v>1.130993430828372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" s="14" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <v>1.130993430828372</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="14" t="n">
-        <v>480334.84</v>
-      </c>
-      <c r="K32" s="14" t="n">
-        <v>1.130993430828372</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="14" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>0.17550819522678518</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="14" t="n">
+        <v>74538.63</v>
+      </c>
+      <c r="J33" s="14" t="n">
+        <v>0.17550819522678518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="D33" s="14" t="n">
-        <v>74538.63</v>
-      </c>
-      <c r="E33" s="14" t="n">
-        <v>0.17550819522678518</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="14" t="n">
-        <v>74538.63</v>
-      </c>
-      <c r="K33" s="14" t="n">
-        <v>0.17550819522678518</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="14" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>0.9581896984815128</v>
+      </c>
+      <c r="E34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="14" t="n">
+        <v>406944.8</v>
+      </c>
+      <c r="J34" s="14" t="n">
+        <v>0.9581896984815128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="D34" s="14" t="n">
-        <v>406944.8</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <v>0.9581896984815128</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="14" t="n">
-        <v>406944.8</v>
-      </c>
-      <c r="K34" s="14" t="n">
-        <v>0.9581896984815128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="14" t="n">
+        <v>4061202.08</v>
+      </c>
+      <c r="D35" s="14" t="n">
+        <v>9.562481192799842</v>
+      </c>
+      <c r="E35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>4061202.08</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>9.562481192799842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="D35" s="14" t="n">
-        <v>4061202.08</v>
-      </c>
-      <c r="E35" s="14" t="n">
-        <v>9.562481192799842</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="14" t="n">
-        <v>4061202.08</v>
-      </c>
-      <c r="K35" s="14" t="n">
-        <v>9.562481192799842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="14" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>0.17462748296600675</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>74164.59</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.17462748296600675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="D36" s="14" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="E36" s="14" t="n">
-        <v>0.17462748296600675</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="14" t="n">
-        <v>74164.59</v>
-      </c>
-      <c r="K36" s="14" t="n">
-        <v>0.17462748296600675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="14" t="n">
+        <v>202964</v>
+      </c>
+      <c r="D37" s="14" t="n">
+        <v>0.4778977737585092</v>
+      </c>
+      <c r="E37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>202964</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>0.4778977737585092</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>202964</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <v>0.4778977737585092</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="14" t="n">
-        <v>202964</v>
-      </c>
-      <c r="K37" s="14" t="n">
-        <v>0.4778977737585092</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="14" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>0.2118877994694113</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>89989.11</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0.2118877994694113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D38" s="14" t="n">
-        <v>89989.11</v>
-      </c>
-      <c r="E38" s="14" t="n">
-        <v>0.2118877994694113</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="14" t="n">
-        <v>89989.11</v>
-      </c>
-      <c r="K38" s="14" t="n">
-        <v>0.2118877994694113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="14" t="n">
+        <v>1147492.48</v>
+      </c>
+      <c r="D39" s="14" t="n">
+        <v>2.7018786661507983</v>
+      </c>
+      <c r="E39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>1147492.48</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>2.7018786661507983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="14" t="n">
-        <v>1147492.48</v>
-      </c>
-      <c r="E39" s="14" t="n">
-        <v>2.7018786661507983</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="14" t="n">
-        <v>1147492.48</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>2.7018786661507983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="14" t="n">
+        <v>729695.25</v>
+      </c>
+      <c r="D40" s="14" t="n">
+        <v>1.718135903397444</v>
+      </c>
+      <c r="E40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>729695.25</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>1.718135903397444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>729695.25</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>1.718135903397444</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="14" t="n">
-        <v>729695.25</v>
-      </c>
-      <c r="K40" s="14" t="n">
-        <v>1.718135903397444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="14" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="D41" s="14" t="n">
+        <v>0.15231250316445633</v>
+      </c>
+      <c r="E41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>64687.38</v>
+      </c>
+      <c r="J41" s="14" t="n">
+        <v>0.15231250316445633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="10" t="s">
         <v>143</v>
-      </c>
-      <c r="D41" s="14" t="n">
-        <v>64687.38</v>
-      </c>
-      <c r="E41" s="14" t="n">
-        <v>0.15231250316445633</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="14" t="n">
-        <v>64687.38</v>
-      </c>
-      <c r="K41" s="14" t="n">
-        <v>0.15231250316445633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="14" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>2.48619730999037</v>
+      </c>
+      <c r="E42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="14" t="n">
+        <v>1055892.24</v>
+      </c>
+      <c r="J42" s="14" t="n">
+        <v>2.48619730999037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="D42" s="14" t="n">
-        <v>1055892.24</v>
-      </c>
-      <c r="E42" s="14" t="n">
-        <v>2.48619730999037</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="14" t="n">
-        <v>1055892.24</v>
-      </c>
-      <c r="K42" s="14" t="n">
-        <v>2.48619730999037</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="14" t="n">
+        <v>756300</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>1.7807792825011357</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="14" t="n">
+        <v>756300</v>
+      </c>
+      <c r="J43" s="14" t="n">
+        <v>1.7807792825011357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="14" t="n">
-        <v>756300</v>
-      </c>
-      <c r="E43" s="14" t="n">
-        <v>1.7807792825011357</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>756300</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>1.7807792825011357</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>148</v>
+      <c r="C44" s="26" t="n">
+        <v>42470170.64</v>
       </c>
       <c r="D44" s="26" t="n">
-        <v>42470170.64</v>
+        <v>100</v>
       </c>
       <c r="E44" s="26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="26" t="n">
         <v>0</v>
@@ -7469,9 +7168,6 @@
         <v>0</v>
       </c>
       <c r="J44" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7481,26 +7177,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
+  <mergeCells count="18">
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:C12"/>
     <mergeCell ref="D12:D12"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:E12"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:F12"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:G12"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:H12"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:I12"/>
-    <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:J12"/>
-    <mergeCell ref="K12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -7,8 +7,8 @@
   <sheets>
     <sheet name="BOLETÍN CUADRO 1.4" sheetId="1" r:id="rId1"/>
     <sheet name="RIR(2) y (RIR)" sheetId="2" r:id="rId2"/>
-    <sheet name="REP INSTITUCION (3)" sheetId="3" r:id="rId3"/>
-    <sheet name="ASEGURADORA REP EMISOR" sheetId="4" r:id="rId4"/>
+    <sheet name="REP INST (3)" sheetId="3" r:id="rId3"/>
+    <sheet name="REP EMISOR" sheetId="4" r:id="rId4"/>
     <sheet name="BOLETÍN CUADRO 1.5" sheetId="5" r:id="rId5"/>
     <sheet name="TGN-BCB" sheetId="6" r:id="rId6"/>
     <sheet name="POR EMISOR" sheetId="7" r:id="rId7"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
   </si>
@@ -93,226 +93,247 @@
     <t>CARTERA DE INVERSION</t>
   </si>
   <si>
-    <t>BUP</t>
-  </si>
-  <si>
-    <t>LBC</t>
-  </si>
-  <si>
-    <t>NAL</t>
+    <t>BUP P</t>
+  </si>
+  <si>
+    <t>LVI P</t>
+  </si>
+  <si>
+    <t>LBC P</t>
+  </si>
+  <si>
+    <t>NAL P</t>
+  </si>
+  <si>
+    <t>ALI P</t>
+  </si>
+  <si>
+    <t>CRS P</t>
+  </si>
+  <si>
+    <t>UVD P</t>
+  </si>
+  <si>
+    <t>SVF P</t>
+  </si>
+  <si>
+    <t>SCV P</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Bienes Raíces</t>
+  </si>
+  <si>
+    <t>Construcción de Vivienda no Suntuaria</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>Préstamos Con Garantía de Pólizas</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>LBC G</t>
+  </si>
+  <si>
+    <t>CRI G</t>
+  </si>
+  <si>
+    <t>ILL G</t>
+  </si>
+  <si>
+    <t>ALI G</t>
+  </si>
+  <si>
+    <t>BIS G</t>
+  </si>
+  <si>
+    <t>CRU G</t>
+  </si>
+  <si>
+    <t>NAL G</t>
+  </si>
+  <si>
+    <t>UNI G</t>
+  </si>
+  <si>
+    <t>CRC G</t>
+  </si>
+  <si>
+    <t>MSC G</t>
+  </si>
+  <si>
+    <t>SEGUROS PREPAGO</t>
+  </si>
+  <si>
+    <t>INN R</t>
+  </si>
+  <si>
+    <t>FMS R</t>
+  </si>
+  <si>
+    <t>INVERSIONES POR TIPO INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>TOTAL SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>CARTERA A VALOR DE MERCADO AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>EN DOLARES ESTADOUNIDENSES</t>
+  </si>
+  <si>
+    <t>INSTRUMENTO</t>
+  </si>
+  <si>
+    <t>LA BOLIVIANA CIACRUZ DE SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS Y REASEGUROS CREDINFORM INTERNATIONAL S.A.</t>
+  </si>
+  <si>
+    <t>SEGUROS ILLIMANI S.A.</t>
+  </si>
+  <si>
+    <t>ALIANZA COMPAÑÍA DE SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>BISA SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>COMPAÑÍA DE SEGUROS Y REASEGUROS FORTALEZA S.A.</t>
+  </si>
+  <si>
+    <t>NACIONAL SEGUROS PATRIMONIALES Y FIANZAS S.A.</t>
+  </si>
+  <si>
+    <t>CREDISEGURO S.A. SEGUROS GENERALES</t>
+  </si>
+  <si>
+    <t>MERCANTIL SANTA CRUZ SEGUROS Y REASEGUROS GENERALES S.A.</t>
+  </si>
+  <si>
+    <t>PORCENTAJE (%)</t>
+  </si>
+  <si>
+    <t>TOTAL SEGUROS DE PERSONAS</t>
+  </si>
+  <si>
+    <t>SEGUROS PERSONALES</t>
+  </si>
+  <si>
+    <t>BUPA INSURANCE (BOLIVIA) S.A.</t>
+  </si>
+  <si>
+    <t>LA BOLIVIANA CIACRUZ SEGUROS PERSONALES S.A.</t>
+  </si>
+  <si>
+    <t>C205</t>
+  </si>
+  <si>
+    <t>NACIONAL SEGUROS VIDA Y SALUD S.A.</t>
+  </si>
+  <si>
+    <t>ALIANZA VIDA DE SEGUROS Y REASEGUROS S.A.</t>
+  </si>
+  <si>
+    <t>CREDISEGURO S.A. SEGUROS PERSONALES</t>
+  </si>
+  <si>
+    <t>SEGUROS Y REASEGUROS PERSONALES UNIVIDA S.A.</t>
+  </si>
+  <si>
+    <t>COMPAÑÍA DE SEGUROS DE VIDA FORTALEZA S.A.</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ VIDA Y SALUD SEGUROS Y REASEGUROS PERSONALES S.A.</t>
+  </si>
+  <si>
+    <t>TOTAL SEGUROS PREPAGO</t>
+  </si>
+  <si>
+    <t>INNOVASALUD SERVICIOS EN SALUD S.A.</t>
+  </si>
+  <si>
+    <t>FOIANINI SALUD MEDICINA PREPAGA S.A.</t>
+  </si>
+  <si>
+    <t>TOTAL MERCADO DE SEGUROS</t>
+  </si>
+  <si>
+    <t>SEGUROS TOTAL MERCADO</t>
+  </si>
+  <si>
+    <t>GENERALES</t>
+  </si>
+  <si>
+    <t>PERSONAS</t>
+  </si>
+  <si>
+    <t>PREPAGO</t>
+  </si>
+  <si>
+    <t>COMPOSICION (%)</t>
+  </si>
+  <si>
+    <t>DIVERSIFICACIÓN POR EMISOR DE LA CARTERA DE INVERSIONES SEGUROS</t>
+  </si>
+  <si>
+    <t>Entidades de Seguros y Reaseguros</t>
+  </si>
+  <si>
+    <t>Cartera a Valor de Mercado</t>
+  </si>
+  <si>
+    <t>AL 30 DE JUNIO DE 2022</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>EMISOR</t>
+  </si>
+  <si>
+    <t>MONTO VALORADO $US</t>
+  </si>
+  <si>
+    <t>TOTAL ENTIDADES</t>
   </si>
   <si>
     <t>ALI</t>
   </si>
   <si>
-    <t>CRS</t>
-  </si>
-  <si>
-    <t>UVD</t>
-  </si>
-  <si>
-    <t>SVF</t>
-  </si>
-  <si>
-    <t>SCV</t>
-  </si>
-  <si>
-    <t>Bienes Raíces</t>
-  </si>
-  <si>
-    <t>Construcción de Vivienda no Suntuaria</t>
-  </si>
-  <si>
-    <t>Disponible</t>
-  </si>
-  <si>
-    <t>Préstamos Con Garantía de Pólizas</t>
-  </si>
-  <si>
-    <t>Valores</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>CRI</t>
-  </si>
-  <si>
-    <t>ILL</t>
+    <t>Alianza Vida Seguros y Reaseguros S.A.</t>
+  </si>
+  <si>
+    <t>BEC</t>
+  </si>
+  <si>
+    <t>Banco Económico S.A.</t>
+  </si>
+  <si>
+    <t>BGA</t>
+  </si>
+  <si>
+    <t>Banco Ganadero S.A.</t>
+  </si>
+  <si>
+    <t>BIL</t>
+  </si>
+  <si>
+    <t>BISA Leasing S.A.</t>
   </si>
   <si>
     <t>BIS</t>
-  </si>
-  <si>
-    <t>CRU</t>
-  </si>
-  <si>
-    <t>CRC</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>SEGUROS PREPAGO</t>
-  </si>
-  <si>
-    <t>INN</t>
-  </si>
-  <si>
-    <t>FMS</t>
-  </si>
-  <si>
-    <t>INVERSIONES POR TIPO INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>TOTAL SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>CARTERA A VALOR DE MERCADO AL 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>EN DOLARES ESTADOUNIDENSES</t>
-  </si>
-  <si>
-    <t>INSTRUMENTO</t>
-  </si>
-  <si>
-    <t>LA BOLIVIANA CIACRUZ DE SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>SEGUROS Y REASEGUROS CREDINFORM INTERNATIONAL S.A.</t>
-  </si>
-  <si>
-    <t>SEGUROS ILLIMANI S.A.</t>
-  </si>
-  <si>
-    <t>ALIANZA COMPAÑÍA DE SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>BISA SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>COMPAÑÍA DE SEGUROS Y REASEGUROS FORTALEZA S.A.</t>
-  </si>
-  <si>
-    <t>NACIONAL SEGUROS PATRIMONIALES Y FIANZAS S.A.</t>
-  </si>
-  <si>
-    <t>CREDISEGURO S.A. SEGUROS GENERALES</t>
-  </si>
-  <si>
-    <t>MERCANTIL SANTA CRUZ SEGUROS Y REASEGUROS GENERALES S.A.</t>
-  </si>
-  <si>
-    <t>PORCENTAJE (%)</t>
-  </si>
-  <si>
-    <t>TOTAL SEGUROS DE PERSONAS</t>
-  </si>
-  <si>
-    <t>SEGUROS PERSONALES</t>
-  </si>
-  <si>
-    <t>BUPA INSURANCE (BOLIVIA) S.A.</t>
-  </si>
-  <si>
-    <t>LA BOLIVIANA CIACRUZ SEGUROS PERSONALES S.A.</t>
-  </si>
-  <si>
-    <t>C205</t>
-  </si>
-  <si>
-    <t>NACIONAL SEGUROS VIDA Y SALUD S.A.</t>
-  </si>
-  <si>
-    <t>ALIANZA VIDA DE SEGUROS Y REASEGUROS S.A.</t>
-  </si>
-  <si>
-    <t>CREDISEGURO S.A. SEGUROS PERSONALES</t>
-  </si>
-  <si>
-    <t>SEGUROS Y REASEGUROS PERSONALES UNIVIDA S.A.</t>
-  </si>
-  <si>
-    <t>COMPAÑÍA DE SEGUROS DE VIDA FORTALEZA S.A.</t>
-  </si>
-  <si>
-    <t>SANTA CRUZ VIDA Y SALUD SEGUROS Y REASEGUROS PERSONALES S.A.</t>
-  </si>
-  <si>
-    <t>TOTAL SEGUROS PREPAGO</t>
-  </si>
-  <si>
-    <t>INNOVASALUD SERVICIOS EN SALUD S.A.</t>
-  </si>
-  <si>
-    <t>FOIANINI SALUD MEDICINA PREPAGA S.A.</t>
-  </si>
-  <si>
-    <t>TOTAL MERCADO DE SEGUROS</t>
-  </si>
-  <si>
-    <t>SEGUROS TOTAL MERCADO</t>
-  </si>
-  <si>
-    <t>GENERALES</t>
-  </si>
-  <si>
-    <t>PERSONAS</t>
-  </si>
-  <si>
-    <t>PREPAGO</t>
-  </si>
-  <si>
-    <t>COMPOSICION (%)</t>
-  </si>
-  <si>
-    <t>DIVERSIFICACIÓN POR EMISOR DE LA CARTERA DE INVERSIONES SEGUROS</t>
-  </si>
-  <si>
-    <t>Entidades de Seguros y Reaseguros</t>
-  </si>
-  <si>
-    <t>Cartera a Valor de Mercado</t>
-  </si>
-  <si>
-    <t>AL 30 DE JUNIO DE 2022</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
-    <t>EMISOR</t>
-  </si>
-  <si>
-    <t>MONTO VALORADO $US</t>
-  </si>
-  <si>
-    <t>TOTAL ENTIDADES</t>
-  </si>
-  <si>
-    <t>Alianza Vida Seguros y Reaseguros S.A.</t>
-  </si>
-  <si>
-    <t>BEC</t>
-  </si>
-  <si>
-    <t>Banco Económico S.A.</t>
-  </si>
-  <si>
-    <t>BGA</t>
-  </si>
-  <si>
-    <t>Banco Ganadero S.A.</t>
-  </si>
-  <si>
-    <t>BIL</t>
-  </si>
-  <si>
-    <t>BISA Leasing S.A.</t>
   </si>
   <si>
     <t>Banco Bisa S.A.</t>
@@ -547,9 +568,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); 0" numFmtId="164"/>
     <numFmt formatCode="#,##0.00; (#,##0.00); 0.00" numFmtId="165"/>
+    <numFmt formatCode="#,##0; (#,##0); 0" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -656,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,7 +690,6 @@
       <alignment horizontal="left" shrinkToFit="1" wrapText="1"/>
     </xf>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4"/>
-    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="3" applyAlignment="1">
       <alignment indent="3" relativeIndent="3"/>
@@ -692,6 +713,7 @@
     <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyBorder="1" borderId="4"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="4"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="4" applyBorder="1" borderId="4" applyAlignment="1">
@@ -717,6 +739,13 @@
     </xf>
     <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="165" applyAlignment="1">
       <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="4" applyBorder="1" borderId="5" applyNumberFormat="1" numFmtId="166" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" vertical="center"/>
+    </xf>
+    <xf applyFont="1" fontId="4" applyBorder="1" borderId="3" applyNumberFormat="1" numFmtId="166" applyAlignment="1">
+      <alignment horizontal="right" indent="1" relativeIndent="2" shrinkToFit="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,104 +1122,104 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="n">
+      <c r="B12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="n">
         <v>23265949.27</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>7.985693822181411</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="n">
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="n">
         <v>23170234.42</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="13" t="n">
         <v>7.952841112091408</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="n">
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="n">
         <v>24008154.43</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="13" t="n">
         <v>8.240444792890596</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="n">
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="n">
         <v>29842397.4</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="13" t="n">
         <v>10.242962614190493</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="n">
+      <c r="B16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="n">
         <v>177465174.75</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="13" t="n">
         <v>60.91230291990659</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14" t="n">
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="n">
         <v>13593460.44</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="13" t="n">
         <v>4.665754738739504</v>
       </c>
     </row>
@@ -1236,25 +1265,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1297,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1279,8 +1312,10 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1292,8 +1327,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1321,155 +1358,191 @@
       <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
+      <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
+      <c r="K10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
+      <c r="B11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
+      <c r="B12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>0</v>
@@ -1493,6 +1566,12 @@
         <v>0</v>
       </c>
       <c r="I16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1501,9 +1580,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1514,8 +1593,10 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,8 +1609,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1542,138 +1625,164 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14" t="n">
+        <v>44</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="n">
         <v>13653009</v>
       </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="n">
+      <c r="F24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="n">
+        <v>13653009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="n">
         <v>2275501</v>
       </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14" t="n">
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="n">
+        <v>2275501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <v>42470171</v>
       </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13" t="n">
+        <v>42470171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="26" t="n">
         <v>0</v>
@@ -1701,6 +1810,12 @@
       </c>
       <c r="J27" s="26" t="n">
         <v>0</v>
+      </c>
+      <c r="K27" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26" t="n">
+        <v>58398681</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1708,79 +1823,97 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
+      <c r="B35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1790,10 +1923,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
+  <mergeCells count="36">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:A10"/>
     <mergeCell ref="B10:B10"/>
     <mergeCell ref="C10:C10"/>
@@ -1803,9 +1936,11 @@
     <mergeCell ref="G10:G10"/>
     <mergeCell ref="H10:H10"/>
     <mergeCell ref="I10:I10"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="J10:J10"/>
+    <mergeCell ref="K10:K10"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
     <mergeCell ref="A23:A23"/>
     <mergeCell ref="B23:B23"/>
     <mergeCell ref="C23:C23"/>
@@ -1816,12 +1951,15 @@
     <mergeCell ref="H23:H23"/>
     <mergeCell ref="I23:I23"/>
     <mergeCell ref="J23:J23"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="K23:K23"/>
+    <mergeCell ref="L23:L23"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:A34"/>
     <mergeCell ref="B34:B34"/>
     <mergeCell ref="C34:C34"/>
+    <mergeCell ref="D34:D34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1852,7 +1990,7 @@
   <sheetData>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1868,7 +2006,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1884,7 +2022,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1900,7 +2038,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1916,10 +2054,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1935,264 +2073,264 @@
     <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14" t="n">
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="L13" s="14" t="n">
+      <c r="L13" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14" t="n">
+      <c r="F14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="L14" s="14" t="n">
+      <c r="L14" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="14" t="n">
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="L15" s="14" t="n">
+      <c r="L15" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="14" t="n">
+      <c r="B16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="14" t="n">
+      <c r="F16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="L16" s="14" t="n">
+      <c r="L16" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14" t="n">
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="F17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="14" t="n">
+      <c r="F17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="L17" s="14" t="n">
+      <c r="L17" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="n">
+      <c r="B18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13" t="n">
         <v>1981554</v>
       </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="14" t="n">
+      <c r="F18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="n">
         <v>1981554</v>
       </c>
-      <c r="L18" s="14" t="n">
+      <c r="L18" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2203,7 +2341,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2219,7 +2357,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2235,7 +2373,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2251,7 +2389,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2267,10 +2405,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2286,37 +2424,37 @@
     <row r="27" spans="1:12">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2326,7 +2464,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2335,7 +2473,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2344,7 +2482,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2353,7 +2491,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2362,10 +2500,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -2374,16 +2512,16 @@
     <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2393,7 +2531,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2403,7 +2541,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2413,7 +2551,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2423,7 +2561,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2433,10 +2571,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2446,138 +2584,138 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="14" t="n">
+      <c r="B46" s="13" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="C46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="14" t="n">
+      <c r="C46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13" t="n">
         <v>25869559.001457725</v>
       </c>
-      <c r="F46" s="14" t="n">
+      <c r="F46" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="14" t="n">
+      <c r="B47" s="13" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="C47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="14" t="n">
+      <c r="C47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="13" t="n">
         <v>3499730.966472303</v>
       </c>
-      <c r="F47" s="14" t="n">
+      <c r="F47" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="14" t="n">
+      <c r="B48" s="13" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="C48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="14" t="n">
+      <c r="C48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13" t="n">
         <v>3377585.192419825</v>
       </c>
-      <c r="F48" s="14" t="n">
+      <c r="F48" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="14" t="n">
+      <c r="B49" s="13" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="C49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="14" t="n">
+      <c r="C49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="13" t="n">
         <v>3391537.794460641</v>
       </c>
-      <c r="F49" s="14" t="n">
+      <c r="F49" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="14" t="n">
+      <c r="B50" s="13" t="n">
         <v>1981554</v>
       </c>
-      <c r="C50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14" t="n">
+      <c r="C50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="13" t="n">
         <v>1981554</v>
       </c>
-      <c r="F50" s="14" t="n">
+      <c r="F50" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="14" t="n">
+      <c r="B51" s="13" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="C51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14" t="n">
+      <c r="C51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13" t="n">
         <v>4350203.702623907</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F51" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2671,7 +2809,7 @@
   <sheetData>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2685,7 +2823,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2699,7 +2837,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2713,7 +2851,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2727,13 +2865,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -2741,11 +2879,11 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -2753,1028 +2891,1028 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="A13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <v>1732906.92</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="13" t="n">
         <v>4.080291870473163</v>
       </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
+      <c r="E13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="n">
         <v>1732906.92</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="13" t="n">
         <v>4.080291870473163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="14" t="n">
+      <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>2203068.98</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="13" t="n">
         <v>5.18733253669828</v>
       </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
+      <c r="E14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="n">
         <v>2203068.98</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="13" t="n">
         <v>5.18733253669828</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="A15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>4375993.23</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="13" t="n">
         <v>10.303686479372242</v>
       </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
+      <c r="E15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
         <v>4375993.23</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="13" t="n">
         <v>10.303686479372242</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="14" t="n">
+      <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="13" t="n">
         <v>102918.73</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="13" t="n">
         <v>0.24233180241349744</v>
       </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
+      <c r="E16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="n">
         <v>102918.73</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="13" t="n">
         <v>0.24233180241349744</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>808004.38</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="13" t="n">
         <v>1.9025220945050576</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
+      <c r="E17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="n">
         <v>808004.38</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="13" t="n">
         <v>1.9025220945050576</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="n">
         <v>3854963.95</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="13" t="n">
         <v>9.07687417287947</v>
       </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
+      <c r="E18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="n">
         <v>3854963.95</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="13" t="n">
         <v>9.07687417287947</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="A19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="n">
         <v>94903.79</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="13" t="n">
         <v>0.22345987447155688</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
+      <c r="E19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="n">
         <v>94903.79</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="13" t="n">
         <v>0.22345987447155688</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="14" t="n">
+      <c r="A20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>574559.05</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="13" t="n">
         <v>1.3528531704529079</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="n">
+      <c r="E20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="n">
         <v>574559.05</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="13" t="n">
         <v>1.3528531704529079</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="14" t="n">
+      <c r="A21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>3675452.76</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="13" t="n">
         <v>8.654198239877852</v>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="n">
+      <c r="E21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="n">
         <v>3675452.76</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="13" t="n">
         <v>8.654198239877852</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="14" t="n">
+      <c r="A22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>3493693.84</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="13" t="n">
         <v>8.226229815779238</v>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="n">
+      <c r="E22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="n">
         <v>3493693.84</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J22" s="13" t="n">
         <v>8.226229815779238</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="14" t="n">
+      <c r="A23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="13" t="n">
         <v>959965.23</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="13" t="n">
         <v>2.2603281680621947</v>
       </c>
-      <c r="E23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="n">
+      <c r="E23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="n">
         <v>959965.23</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J23" s="13" t="n">
         <v>2.2603281680621947</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="14" t="n">
+      <c r="A24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>2179330.41</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="13" t="n">
         <v>5.13143784722029</v>
       </c>
-      <c r="E24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
+      <c r="E24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
         <v>2179330.41</v>
       </c>
-      <c r="J24" s="14" t="n">
+      <c r="J24" s="13" t="n">
         <v>5.13143784722029</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="14" t="n">
+      <c r="A25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>589694.22</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>1.3884903477279742</v>
       </c>
-      <c r="E25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
+      <c r="E25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
         <v>589694.22</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="13" t="n">
         <v>1.3884903477279742</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="14" t="n">
+      <c r="A26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="13" t="n">
         <v>481987.83</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>1.1348855508153899</v>
       </c>
-      <c r="E26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
+      <c r="E26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="n">
         <v>481987.83</v>
       </c>
-      <c r="J26" s="14" t="n">
+      <c r="J26" s="13" t="n">
         <v>1.1348855508153899</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="14" t="n">
+      <c r="A27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="13" t="n">
         <v>2534501.59</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>5.967721701623942</v>
       </c>
-      <c r="E27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="n">
+      <c r="E27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="n">
         <v>2534501.59</v>
       </c>
-      <c r="J27" s="14" t="n">
+      <c r="J27" s="13" t="n">
         <v>5.967721701623942</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="14" t="n">
+      <c r="A28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="13" t="n">
         <v>359420.87</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="13" t="n">
         <v>0.8462901480821552</v>
       </c>
-      <c r="E28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="n">
+      <c r="E28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="n">
         <v>359420.87</v>
       </c>
-      <c r="J28" s="14" t="n">
+      <c r="J28" s="13" t="n">
         <v>0.8462901480821552</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="14" t="n">
+      <c r="A29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="13" t="n">
         <v>2010443.87</v>
       </c>
-      <c r="D29" s="14" t="n">
+      <c r="D29" s="13" t="n">
         <v>4.733778649117291</v>
       </c>
-      <c r="E29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="n">
+      <c r="E29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="n">
         <v>2010443.87</v>
       </c>
-      <c r="J29" s="14" t="n">
+      <c r="J29" s="13" t="n">
         <v>4.733778649117291</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="14" t="n">
+      <c r="A30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <v>434588.92</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="13" t="n">
         <v>1.0232803717315133</v>
       </c>
-      <c r="E30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14" t="n">
+      <c r="E30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="n">
         <v>434588.92</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="13" t="n">
         <v>1.0232803717315133</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="14" t="n">
+      <c r="A31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="13" t="n">
         <v>2859566.67</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="13" t="n">
         <v>6.733117919961341</v>
       </c>
-      <c r="E31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="n">
+      <c r="E31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="n">
         <v>2859566.67</v>
       </c>
-      <c r="J31" s="14" t="n">
+      <c r="J31" s="13" t="n">
         <v>6.733117919961341</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="14" t="n">
+      <c r="A32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <v>480334.84</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="13" t="n">
         <v>1.130993430828372</v>
       </c>
-      <c r="E32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14" t="n">
+      <c r="E32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="n">
         <v>480334.84</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="13" t="n">
         <v>1.130993430828372</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="14" t="n">
+      <c r="A33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="13" t="n">
         <v>74538.63</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="13" t="n">
         <v>0.17550819522678518</v>
       </c>
-      <c r="E33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="n">
+      <c r="E33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="n">
         <v>74538.63</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J33" s="13" t="n">
         <v>0.17550819522678518</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="14" t="n">
+      <c r="A34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>406944.8</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="13" t="n">
         <v>0.9581896984815128</v>
       </c>
-      <c r="E34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" t="n">
+      <c r="E34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="n">
         <v>406944.8</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="13" t="n">
         <v>0.9581896984815128</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="14" t="n">
+      <c r="A35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="13" t="n">
         <v>4061202.08</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D35" s="13" t="n">
         <v>9.562481192799842</v>
       </c>
-      <c r="E35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="n">
+      <c r="E35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="n">
         <v>4061202.08</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J35" s="13" t="n">
         <v>9.562481192799842</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="14" t="n">
+      <c r="A36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="13" t="n">
         <v>74164.59</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>0.17462748296600675</v>
       </c>
-      <c r="E36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="n">
+      <c r="E36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="n">
         <v>74164.59</v>
       </c>
-      <c r="J36" s="14" t="n">
+      <c r="J36" s="13" t="n">
         <v>0.17462748296600675</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="14" t="n">
+      <c r="A37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="13" t="n">
         <v>202964</v>
       </c>
-      <c r="D37" s="14" t="n">
+      <c r="D37" s="13" t="n">
         <v>0.4778977737585092</v>
       </c>
-      <c r="E37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
+      <c r="E37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="n">
         <v>202964</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="13" t="n">
         <v>0.4778977737585092</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="14" t="n">
+      <c r="A38" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="13" t="n">
         <v>89989.11</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="13" t="n">
         <v>0.2118877994694113</v>
       </c>
-      <c r="E38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="n">
+      <c r="E38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="n">
         <v>89989.11</v>
       </c>
-      <c r="J38" s="14" t="n">
+      <c r="J38" s="13" t="n">
         <v>0.2118877994694113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="14" t="n">
+      <c r="A39" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="13" t="n">
         <v>1147492.48</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="13" t="n">
         <v>2.7018786661507983</v>
       </c>
-      <c r="E39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
+      <c r="E39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="n">
         <v>1147492.48</v>
       </c>
-      <c r="J39" s="14" t="n">
+      <c r="J39" s="13" t="n">
         <v>2.7018786661507983</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="14" t="n">
+      <c r="A40" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="13" t="n">
         <v>729695.25</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="13" t="n">
         <v>1.718135903397444</v>
       </c>
-      <c r="E40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="n">
+      <c r="E40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="n">
         <v>729695.25</v>
       </c>
-      <c r="J40" s="14" t="n">
+      <c r="J40" s="13" t="n">
         <v>1.718135903397444</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="14" t="n">
+      <c r="A41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="13" t="n">
         <v>64687.38</v>
       </c>
-      <c r="D41" s="14" t="n">
+      <c r="D41" s="13" t="n">
         <v>0.15231250316445633</v>
       </c>
-      <c r="E41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
+      <c r="E41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="n">
         <v>64687.38</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="13" t="n">
         <v>0.15231250316445633</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="14" t="n">
+      <c r="A42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="13" t="n">
         <v>1055892.24</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="13" t="n">
         <v>2.48619730999037</v>
       </c>
-      <c r="E42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
+      <c r="E42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="n">
         <v>1055892.24</v>
       </c>
-      <c r="J42" s="14" t="n">
+      <c r="J42" s="13" t="n">
         <v>2.48619730999037</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="14" t="n">
+      <c r="A43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="13" t="n">
         <v>756300</v>
       </c>
-      <c r="D43" s="14" t="n">
+      <c r="D43" s="13" t="n">
         <v>1.7807792825011357</v>
       </c>
-      <c r="E43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
+      <c r="E43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="n">
         <v>756300</v>
       </c>
-      <c r="J43" s="14" t="n">
+      <c r="J43" s="13" t="n">
         <v>1.7807792825011357</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>147</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>42470170.64</v>
@@ -3834,26 +3972,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3866,10 +4005,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3880,10 +4020,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3894,10 +4035,11 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -3924,173 +4066,191 @@
         <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="20" t="s">
-        <v>33</v>
-      </c>
       <c r="B16" s="26" t="n">
         <v>0</v>
       </c>
@@ -4116,6 +4276,9 @@
         <v>0</v>
       </c>
       <c r="J16" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4124,9 +4287,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4138,10 +4301,11 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4153,10 +4317,11 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4168,150 +4333,163 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="14" t="n">
+        <v>45</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13" t="n">
         <v>93659641</v>
       </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="14" t="n">
+      <c r="F24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13" t="n">
         <v>93659641</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="14" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13" t="n">
         <v>15609940</v>
       </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14" t="n">
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13" t="n">
         <v>15609940</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="14" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <v>291345371</v>
       </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="14" t="n">
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="13" t="n">
         <v>291345371</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" s="26" t="n">
         <v>0</v>
@@ -4341,6 +4519,9 @@
         <v>0</v>
       </c>
       <c r="K27" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26" t="n">
         <v>400614952</v>
       </c>
     </row>
@@ -4351,7 +4532,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4359,7 +4540,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4367,7 +4548,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4375,63 +4556,63 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14" t="n">
+      <c r="A35" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14" t="n">
+      <c r="A36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="n">
+      <c r="A37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" s="26" t="n">
         <v>0</v>
@@ -4449,10 +4630,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
+  <mergeCells count="36">
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:A10"/>
     <mergeCell ref="B10:B10"/>
     <mergeCell ref="C10:C10"/>
@@ -4463,9 +4644,10 @@
     <mergeCell ref="H10:H10"/>
     <mergeCell ref="I10:I10"/>
     <mergeCell ref="J10:J10"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="K10:K10"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
     <mergeCell ref="A23:A23"/>
     <mergeCell ref="B23:B23"/>
     <mergeCell ref="C23:C23"/>
@@ -4477,6 +4659,7 @@
     <mergeCell ref="I23:I23"/>
     <mergeCell ref="J23:J23"/>
     <mergeCell ref="K23:K23"/>
+    <mergeCell ref="L23:L23"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
@@ -4492,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -4508,7 +4691,7 @@
   <sheetData>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4518,7 +4701,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4528,7 +4711,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4538,26 +4721,46 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="0" t="s">
+      <c r="C11" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4594,7 +4797,7 @@
   <sheetData>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4602,7 +4805,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4618,455 +4821,455 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14" t="n">
+      <c r="A11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="n">
         <v>11887741.5</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="13" t="n">
         <v>11887741.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14" t="n">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <v>15113053.23</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="13" t="n">
         <v>15113053.23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="14" t="n">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="13" t="n">
         <v>17282207.78</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="13" t="n">
         <v>12737105.77</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="13" t="n">
         <v>30019313.55</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14" t="n">
+      <c r="A14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>706022.49</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="13" t="n">
         <v>706022.49</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="14" t="n">
+      <c r="A15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="13" t="n">
         <v>3432785.16</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="13" t="n">
         <v>2110124.86</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="13" t="n">
         <v>5542910.02</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="14" t="n">
+      <c r="A16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="13" t="n">
         <v>15319103.31</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="13" t="n">
         <v>11125949.4</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="13" t="n">
         <v>26445052.71</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="A17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>651040</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="13" t="n">
         <v>651040</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="A18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13" t="n">
         <v>3941475.1</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="13" t="n">
         <v>3941475.1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="A19" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13" t="n">
         <v>25213605.95</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="13" t="n">
         <v>25213605.95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="14" t="n">
+      <c r="A20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="13" t="n">
         <v>22945911.79</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="13" t="n">
         <v>1020827.94</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="13" t="n">
         <v>23966739.73</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14" t="n">
+      <c r="A21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>6585361.45</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="13" t="n">
         <v>6585361.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14" t="n">
+      <c r="A22" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>14950206.64</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="13" t="n">
         <v>14950206.64</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="14" t="n">
+      <c r="A23" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="13" t="n">
         <v>4045302.35</v>
       </c>
-      <c r="C23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="14" t="n">
+      <c r="C23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="13" t="n">
         <v>4045302.35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14" t="n">
+      <c r="A24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>3306436.5</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="13" t="n">
         <v>3306436.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14" t="n">
+      <c r="A25" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>17386680.89</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>17386680.89</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14" t="n">
+      <c r="A26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13" t="n">
         <v>2465627.16</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>2465627.16</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="14" t="n">
+      <c r="A27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="13" t="n">
         <v>13074033.18</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="13" t="n">
         <v>717611.8</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>13791644.98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14" t="n">
+      <c r="A28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="13" t="n">
         <v>2981280</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="13" t="n">
         <v>2981280</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="14" t="n">
+      <c r="A29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="13" t="n">
         <v>2494569.03</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C29" s="13" t="n">
         <v>17122058.35</v>
       </c>
-      <c r="D29" s="14" t="n">
+      <c r="D29" s="13" t="n">
         <v>19616627.38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14" t="n">
+      <c r="A30" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <v>3295097</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="13" t="n">
         <v>3295097</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14" t="n">
+      <c r="A31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13" t="n">
         <v>511335</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="13" t="n">
         <v>511335</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B32" s="14" t="n">
+      <c r="A32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="13" t="n">
         <v>2791641.33</v>
       </c>
-      <c r="C32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="14" t="n">
+      <c r="C32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="n">
         <v>2791641.33</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14" t="n">
+      <c r="A33" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13" t="n">
         <v>27859846.24</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="13" t="n">
         <v>27859846.24</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14" t="n">
+      <c r="A34" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>508769.1</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="13" t="n">
         <v>508769.1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="14" t="n">
+      <c r="A35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="13" t="n">
         <v>1392333.04</v>
       </c>
-      <c r="C35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="14" t="n">
+      <c r="C35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="13" t="n">
         <v>1392333.04</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="14" t="n">
+      <c r="A36" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="13" t="n">
         <v>617325.3</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>617325.3</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="14" t="n">
+      <c r="A37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="13" t="n">
         <v>7871798.41</v>
       </c>
-      <c r="C37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="n">
+      <c r="C37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="13" t="n">
         <v>7871798.41</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="14" t="n">
+      <c r="A38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13" t="n">
         <v>5005709.4</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="13" t="n">
         <v>5005709.4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="14" t="n">
+      <c r="A39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13" t="n">
         <v>443755.46</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="13" t="n">
         <v>443755.46</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="14" t="n">
+      <c r="A40" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="13" t="n">
         <v>7243420.8</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="13" t="n">
         <v>7243420.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="14" t="n">
+      <c r="A41" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="13" t="n">
         <v>5188218</v>
       </c>
-      <c r="C41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="14" t="n">
+      <c r="C41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="13" t="n">
         <v>5188218</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" s="26" t="n">
         <v>95837903.38</v>
@@ -5113,7 +5316,7 @@
   <sheetData>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5127,415 +5330,415 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="14" t="n">
+      <c r="A11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="29" t="n">
         <v>370</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="13" t="n">
         <v>447043.48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="14" t="n">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="29" t="n">
         <v>721</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="13" t="n">
         <v>732122.18</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="14" t="n">
+      <c r="A13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="29" t="n">
         <v>901</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C13" s="13" t="n">
         <v>160595.62</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="14" t="n">
+      <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="29" t="n">
         <v>4070</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="13" t="n">
         <v>849389.14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="14" t="n">
+      <c r="A15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="29" t="n">
         <v>360</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="13" t="n">
         <v>504947.45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="14" t="n">
+      <c r="A16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="29" t="n">
         <v>540</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="13" t="n">
         <v>1001100.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="14" t="n">
+      <c r="A17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="29" t="n">
         <v>720</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="13" t="n">
         <v>1013224.52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="14" t="n">
+      <c r="A18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="29" t="n">
         <v>1081</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="13" t="n">
         <v>500406</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="14" t="n">
+      <c r="A19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="29" t="n">
         <v>3700</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="13" t="n">
         <v>307598.38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="14" t="n">
+      <c r="A20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="29" t="n">
         <v>370</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="13" t="n">
         <v>200387.26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="14" t="n">
+      <c r="A21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="29" t="n">
         <v>400</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="13" t="n">
         <v>110439.55</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="14" t="n">
+      <c r="A22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="29" t="n">
         <v>540</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="13" t="n">
         <v>500461.49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="14" t="n">
+      <c r="A23" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="29" t="n">
         <v>720</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="13" t="n">
         <v>601914.64</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="14" t="n">
+      <c r="A24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="29" t="n">
         <v>600</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="13" t="n">
         <v>155055.41</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="14" t="n">
+      <c r="A25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="29" t="n">
         <v>2160</v>
       </c>
-      <c r="C25" s="14" t="n">
+      <c r="C25" s="13" t="n">
         <v>419503.64</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="14" t="n">
+      <c r="A26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="29" t="n">
         <v>1766</v>
       </c>
-      <c r="C26" s="14" t="n">
+      <c r="C26" s="13" t="n">
         <v>1024397.16</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="14" t="n">
+      <c r="A27" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="29" t="n">
         <v>1796</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C27" s="13" t="n">
         <v>342126.29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="14" t="n">
+      <c r="A28" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="29" t="n">
         <v>1797</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C28" s="13" t="n">
         <v>856444.82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="14" t="n">
+      <c r="A29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="29" t="n">
         <v>3653</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C29" s="13" t="n">
         <v>898174.79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="14" t="n">
+      <c r="A30" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="29" t="n">
         <v>360</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="13" t="n">
         <v>2714391.1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B31" s="14" t="n">
+      <c r="A31" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="29" t="n">
         <v>390</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C31" s="13" t="n">
         <v>74566.77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" s="14" t="n">
+      <c r="A32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="29" t="n">
         <v>391</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C32" s="13" t="n">
         <v>14549.17</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="14" t="n">
+      <c r="A33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="29" t="n">
         <v>392</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="13" t="n">
         <v>59692.8</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B34" s="14" t="n">
+      <c r="A34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="29" t="n">
         <v>1080</v>
       </c>
-      <c r="C34" s="14" t="n">
+      <c r="C34" s="13" t="n">
         <v>630494</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="14" t="n">
+      <c r="A35" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="29" t="n">
         <v>1200</v>
       </c>
-      <c r="C35" s="14" t="n">
+      <c r="C35" s="13" t="n">
         <v>2534501.59</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="14" t="n">
+      <c r="A36" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="29" t="n">
         <v>362</v>
       </c>
-      <c r="C36" s="14" t="n">
+      <c r="C36" s="13" t="n">
         <v>148712.49</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="14" t="n">
+      <c r="A37" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="29" t="n">
         <v>363</v>
       </c>
-      <c r="C37" s="14" t="n">
+      <c r="C37" s="13" t="n">
         <v>135346.26</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="14" t="n">
+      <c r="A38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="29" t="n">
         <v>721</v>
       </c>
-      <c r="C38" s="14" t="n">
+      <c r="C38" s="13" t="n">
         <v>75362.11</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" s="14" t="n">
+      <c r="A39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="29" t="n">
         <v>390</v>
       </c>
-      <c r="C39" s="14" t="n">
+      <c r="C39" s="13" t="n">
         <v>30006.09</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="14" t="n">
+      <c r="A40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="29" t="n">
         <v>721</v>
       </c>
-      <c r="C40" s="14" t="n">
+      <c r="C40" s="13" t="n">
         <v>1005307.52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="14" t="n">
+      <c r="A41" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="29" t="n">
         <v>1080</v>
       </c>
-      <c r="C41" s="14" t="n">
+      <c r="C41" s="13" t="n">
         <v>900528.22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="14" t="n">
+      <c r="A42" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="29" t="n">
         <v>92</v>
       </c>
-      <c r="C42" s="14" t="n">
+      <c r="C42" s="13" t="n">
         <v>363639.8</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="14" t="n">
+      <c r="A43" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="29" t="n">
         <v>4319</v>
       </c>
-      <c r="C43" s="14" t="n">
+      <c r="C43" s="13" t="n">
         <v>713326.44</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="14" t="n">
+      <c r="A44" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="29" t="n">
         <v>4320</v>
       </c>
-      <c r="C44" s="14" t="n">
+      <c r="C44" s="13" t="n">
         <v>1782600.43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="14" t="n">
+      <c r="A45" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="29" t="n">
         <v>3607</v>
       </c>
-      <c r="C45" s="14" t="n">
+      <c r="C45" s="13" t="n">
         <v>3655052.23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="14" t="n">
+      <c r="A46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="29" t="n">
         <v>3614</v>
       </c>
-      <c r="C46" s="14" t="n">
+      <c r="C46" s="13" t="n">
         <v>406149.85</v>
       </c>
     </row>
@@ -5546,7 +5749,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5560,437 +5763,437 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="14" t="n">
+      <c r="A54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="29" t="n">
         <v>126</v>
       </c>
-      <c r="C54" s="14" t="n">
+      <c r="C54" s="13" t="n">
         <v>447043.48</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="14" t="n">
+      <c r="A55" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="29" t="n">
         <v>676</v>
       </c>
-      <c r="C55" s="14" t="n">
+      <c r="C55" s="13" t="n">
         <v>732122.18</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="14" t="n">
+      <c r="A56" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="29" t="n">
         <v>886</v>
       </c>
-      <c r="C56" s="14" t="n">
+      <c r="C56" s="13" t="n">
         <v>160595.62</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="14" t="n">
+      <c r="A57" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="29" t="n">
         <v>1845</v>
       </c>
-      <c r="C57" s="14" t="n">
+      <c r="C57" s="13" t="n">
         <v>849389.14</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58" s="14" t="n">
+      <c r="A58" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="29" t="n">
         <v>50</v>
       </c>
-      <c r="C58" s="14" t="n">
+      <c r="C58" s="13" t="n">
         <v>504947.45</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="14" t="n">
+      <c r="A59" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="29" t="n">
         <v>293</v>
       </c>
-      <c r="C59" s="14" t="n">
+      <c r="C59" s="13" t="n">
         <v>1013224.52</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B60" s="14" t="n">
+      <c r="A60" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="29" t="n">
         <v>502</v>
       </c>
-      <c r="C60" s="14" t="n">
+      <c r="C60" s="13" t="n">
         <v>1001100.3</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="14" t="n">
+      <c r="A61" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="29" t="n">
         <v>1013</v>
       </c>
-      <c r="C61" s="14" t="n">
+      <c r="C61" s="13" t="n">
         <v>307598.38</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="14" t="n">
+      <c r="A62" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="29" t="n">
         <v>1054</v>
       </c>
-      <c r="C62" s="14" t="n">
+      <c r="C62" s="13" t="n">
         <v>500406</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="14" t="n">
+      <c r="A63" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="29" t="n">
         <v>263</v>
       </c>
-      <c r="C63" s="14" t="n">
+      <c r="C63" s="13" t="n">
         <v>601914.64</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" s="14" t="n">
+      <c r="A64" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="29" t="n">
         <v>273</v>
       </c>
-      <c r="C64" s="14" t="n">
+      <c r="C64" s="13" t="n">
         <v>110439.55</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B65" s="14" t="n">
+      <c r="A65" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="29" t="n">
         <v>300</v>
       </c>
-      <c r="C65" s="14" t="n">
+      <c r="C65" s="13" t="n">
         <v>200387.26</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="14" t="n">
+      <c r="A66" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="29" t="n">
         <v>509</v>
       </c>
-      <c r="C66" s="14" t="n">
+      <c r="C66" s="13" t="n">
         <v>500461.49</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B67" s="14" t="n">
+      <c r="A67" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="29" t="n">
         <v>138</v>
       </c>
-      <c r="C67" s="14" t="n">
+      <c r="C67" s="13" t="n">
         <v>155055.41</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68" s="14" t="n">
+      <c r="A68" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" s="29" t="n">
         <v>1482</v>
       </c>
-      <c r="C68" s="14" t="n">
+      <c r="C68" s="13" t="n">
         <v>419503.64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="14" t="n">
+      <c r="A69" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="29" t="n">
         <v>670</v>
       </c>
-      <c r="C69" s="14" t="n">
+      <c r="C69" s="13" t="n">
         <v>856444.82</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B70" s="14" t="n">
+      <c r="A70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="29" t="n">
         <v>721</v>
       </c>
-      <c r="C70" s="14" t="n">
+      <c r="C70" s="13" t="n">
         <v>683009.03</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B71" s="14" t="n">
+      <c r="A71" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="29" t="n">
         <v>729</v>
       </c>
-      <c r="C71" s="14" t="n">
+      <c r="C71" s="13" t="n">
         <v>341388.13</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="14" t="n">
+      <c r="A72" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="29" t="n">
         <v>747</v>
       </c>
-      <c r="C72" s="14" t="n">
+      <c r="C72" s="13" t="n">
         <v>342126.29</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="14" t="n">
+      <c r="A73" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="29" t="n">
         <v>966</v>
       </c>
-      <c r="C73" s="14" t="n">
+      <c r="C73" s="13" t="n">
         <v>898174.79</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="14" t="n">
+      <c r="A74" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="29" t="n">
         <v>176</v>
       </c>
-      <c r="C74" s="14" t="n">
+      <c r="C74" s="13" t="n">
         <v>2011214.37</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="14" t="n">
+      <c r="A75" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="29" t="n">
         <v>182</v>
       </c>
-      <c r="C75" s="14" t="n">
+      <c r="C75" s="13" t="n">
         <v>630494</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="14" t="n">
+      <c r="A76" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B76" s="29" t="n">
         <v>211</v>
       </c>
-      <c r="C76" s="14" t="n">
+      <c r="C76" s="13" t="n">
         <v>703176.73</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="14" t="n">
+      <c r="A77" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="29" t="n">
         <v>321</v>
       </c>
-      <c r="C77" s="14" t="n">
+      <c r="C77" s="13" t="n">
         <v>74566.77</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B78" s="14" t="n">
+      <c r="A78" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78" s="29" t="n">
         <v>326</v>
       </c>
-      <c r="C78" s="14" t="n">
+      <c r="C78" s="13" t="n">
         <v>74241.97</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="14" t="n">
+      <c r="A79" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="29" t="n">
         <v>278</v>
       </c>
-      <c r="C79" s="14" t="n">
+      <c r="C79" s="13" t="n">
         <v>2534501.59</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B80" s="14" t="n">
+      <c r="A80" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="29" t="n">
         <v>270</v>
       </c>
-      <c r="C80" s="14" t="n">
+      <c r="C80" s="13" t="n">
         <v>284058.76</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="14" t="n">
+      <c r="A81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="29" t="n">
         <v>644</v>
       </c>
-      <c r="C81" s="14" t="n">
+      <c r="C81" s="13" t="n">
         <v>75362.11</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="14" t="n">
+      <c r="A82" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="29" t="n">
         <v>264</v>
       </c>
-      <c r="C82" s="14" t="n">
+      <c r="C82" s="13" t="n">
         <v>30006.09</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B83" s="14" t="n">
+      <c r="A83" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="29" t="n">
         <v>561</v>
       </c>
-      <c r="C83" s="14" t="n">
+      <c r="C83" s="13" t="n">
         <v>1005307.52</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B84" s="14" t="n">
+      <c r="A84" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="29" t="n">
         <v>1046</v>
       </c>
-      <c r="C84" s="14" t="n">
+      <c r="C84" s="13" t="n">
         <v>900528.22</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B85" s="14" t="n">
+      <c r="A85" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="14" t="n">
+      <c r="C85" s="13" t="n">
         <v>363639.8</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="14" t="n">
+      <c r="A86" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="29" t="n">
         <v>2304</v>
       </c>
-      <c r="C86" s="14" t="n">
+      <c r="C86" s="13" t="n">
         <v>713326.44</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" s="14" t="n">
+      <c r="A87" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="29" t="n">
         <v>2309</v>
       </c>
-      <c r="C87" s="14" t="n">
+      <c r="C87" s="13" t="n">
         <v>713087.33</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="14" t="n">
+      <c r="A88" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B88" s="29" t="n">
         <v>2310</v>
       </c>
-      <c r="C88" s="14" t="n">
+      <c r="C88" s="13" t="n">
         <v>713028.38</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="14" t="n">
+      <c r="A89" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B89" s="29" t="n">
         <v>2311</v>
       </c>
-      <c r="C89" s="14" t="n">
+      <c r="C89" s="13" t="n">
         <v>356484.72</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="14" t="n">
+      <c r="A90" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="29" t="n">
         <v>2316</v>
       </c>
-      <c r="C90" s="14" t="n">
+      <c r="C90" s="13" t="n">
         <v>3655052.23</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B91" s="14" t="n">
+      <c r="A91" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="29" t="n">
         <v>2321</v>
       </c>
-      <c r="C91" s="14" t="n">
+      <c r="C91" s="13" t="n">
         <v>406149.85</v>
       </c>
     </row>
@@ -6041,7 +6244,7 @@
   <sheetData>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6055,7 +6258,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6069,7 +6272,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6083,7 +6286,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6097,13 +6300,13 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -6111,11 +6314,11 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -6123,1028 +6326,1028 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="14" t="n">
+      <c r="A13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <v>1732906.92</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="13" t="n">
         <v>4.080291870473163</v>
       </c>
-      <c r="E13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14" t="n">
+      <c r="E13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13" t="n">
         <v>1732906.92</v>
       </c>
-      <c r="J13" s="14" t="n">
+      <c r="J13" s="13" t="n">
         <v>4.080291870473163</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="14" t="n">
+      <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>2203068.98</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="13" t="n">
         <v>5.18733253669828</v>
       </c>
-      <c r="E14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14" t="n">
+      <c r="E14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="n">
         <v>2203068.98</v>
       </c>
-      <c r="J14" s="14" t="n">
+      <c r="J14" s="13" t="n">
         <v>5.18733253669828</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="14" t="n">
+      <c r="A15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>4375993.23</v>
       </c>
-      <c r="D15" s="14" t="n">
+      <c r="D15" s="13" t="n">
         <v>10.303686479372242</v>
       </c>
-      <c r="E15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14" t="n">
+      <c r="E15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="n">
         <v>4375993.23</v>
       </c>
-      <c r="J15" s="14" t="n">
+      <c r="J15" s="13" t="n">
         <v>10.303686479372242</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="14" t="n">
+      <c r="A16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="13" t="n">
         <v>102918.73</v>
       </c>
-      <c r="D16" s="14" t="n">
+      <c r="D16" s="13" t="n">
         <v>0.24233180241349744</v>
       </c>
-      <c r="E16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="n">
+      <c r="E16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13" t="n">
         <v>102918.73</v>
       </c>
-      <c r="J16" s="14" t="n">
+      <c r="J16" s="13" t="n">
         <v>0.24233180241349744</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="14" t="n">
+      <c r="A17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>808004.38</v>
       </c>
-      <c r="D17" s="14" t="n">
+      <c r="D17" s="13" t="n">
         <v>1.9025220945050576</v>
       </c>
-      <c r="E17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="n">
+      <c r="E17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13" t="n">
         <v>808004.38</v>
       </c>
-      <c r="J17" s="14" t="n">
+      <c r="J17" s="13" t="n">
         <v>1.9025220945050576</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="14" t="n">
+      <c r="A18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="n">
         <v>3854963.95</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="13" t="n">
         <v>9.07687417287947</v>
       </c>
-      <c r="E18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14" t="n">
+      <c r="E18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13" t="n">
         <v>3854963.95</v>
       </c>
-      <c r="J18" s="14" t="n">
+      <c r="J18" s="13" t="n">
         <v>9.07687417287947</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="14" t="n">
+      <c r="A19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="13" t="n">
         <v>94903.79</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="13" t="n">
         <v>0.22345987447155688</v>
       </c>
-      <c r="E19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14" t="n">
+      <c r="E19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13" t="n">
         <v>94903.79</v>
       </c>
-      <c r="J19" s="14" t="n">
+      <c r="J19" s="13" t="n">
         <v>0.22345987447155688</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="14" t="n">
+      <c r="A20" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>574559.05</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D20" s="13" t="n">
         <v>1.3528531704529079</v>
       </c>
-      <c r="E20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14" t="n">
+      <c r="E20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13" t="n">
         <v>574559.05</v>
       </c>
-      <c r="J20" s="14" t="n">
+      <c r="J20" s="13" t="n">
         <v>1.3528531704529079</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="14" t="n">
+      <c r="A21" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>3675452.76</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="13" t="n">
         <v>8.654198239877852</v>
       </c>
-      <c r="E21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14" t="n">
+      <c r="E21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13" t="n">
         <v>3675452.76</v>
       </c>
-      <c r="J21" s="14" t="n">
+      <c r="J21" s="13" t="n">
         <v>8.654198239877852</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="14" t="n">
+      <c r="A22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>3493693.84</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D22" s="13" t="n">
         <v>8.226229815779238</v>
       </c>
-      <c r="E22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14" t="n">
+      <c r="E22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13" t="n">
         <v>3493693.84</v>
       </c>
-      <c r="J22" s="14" t="n">
+      <c r="J22" s="13" t="n">
         <v>8.226229815779238</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="14" t="n">
+      <c r="A23" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="13" t="n">
         <v>959965.23</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="13" t="n">
         <v>2.2603281680621947</v>
       </c>
-      <c r="E23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14" t="n">
+      <c r="E23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13" t="n">
         <v>959965.23</v>
       </c>
-      <c r="J23" s="14" t="n">
+      <c r="J23" s="13" t="n">
         <v>2.2603281680621947</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="14" t="n">
+      <c r="A24" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>2179330.41</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="13" t="n">
         <v>5.13143784722029</v>
       </c>
-      <c r="E24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14" t="n">
+      <c r="E24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13" t="n">
         <v>2179330.41</v>
       </c>
-      <c r="J24" s="14" t="n">
+      <c r="J24" s="13" t="n">
         <v>5.13143784722029</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="14" t="n">
+      <c r="A25" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>589694.22</v>
       </c>
-      <c r="D25" s="14" t="n">
+      <c r="D25" s="13" t="n">
         <v>1.3884903477279742</v>
       </c>
-      <c r="E25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14" t="n">
+      <c r="E25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13" t="n">
         <v>589694.22</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="13" t="n">
         <v>1.3884903477279742</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="14" t="n">
+      <c r="A26" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="13" t="n">
         <v>481987.83</v>
       </c>
-      <c r="D26" s="14" t="n">
+      <c r="D26" s="13" t="n">
         <v>1.1348855508153899</v>
       </c>
-      <c r="E26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14" t="n">
+      <c r="E26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13" t="n">
         <v>481987.83</v>
       </c>
-      <c r="J26" s="14" t="n">
+      <c r="J26" s="13" t="n">
         <v>1.1348855508153899</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="14" t="n">
+      <c r="A27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="13" t="n">
         <v>2534501.59</v>
       </c>
-      <c r="D27" s="14" t="n">
+      <c r="D27" s="13" t="n">
         <v>5.967721701623942</v>
       </c>
-      <c r="E27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14" t="n">
+      <c r="E27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13" t="n">
         <v>2534501.59</v>
       </c>
-      <c r="J27" s="14" t="n">
+      <c r="J27" s="13" t="n">
         <v>5.967721701623942</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="14" t="n">
+      <c r="A28" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="13" t="n">
         <v>359420.87</v>
       </c>
-      <c r="D28" s="14" t="n">
+      <c r="D28" s="13" t="n">
         <v>0.8462901480821552</v>
       </c>
-      <c r="E28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14" t="n">
+      <c r="E28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13" t="n">
         <v>359420.87</v>
       </c>
-      <c r="J28" s="14" t="n">
+      <c r="J28" s="13" t="n">
         <v>0.8462901480821552</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="14" t="n">
+      <c r="A29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="13" t="n">
         <v>2010443.87</v>
       </c>
-      <c r="D29" s="14" t="n">
+      <c r="D29" s="13" t="n">
         <v>4.733778649117291</v>
       </c>
-      <c r="E29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14" t="n">
+      <c r="E29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="n">
         <v>2010443.87</v>
       </c>
-      <c r="J29" s="14" t="n">
+      <c r="J29" s="13" t="n">
         <v>4.733778649117291</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="14" t="n">
+      <c r="A30" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <v>434588.92</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="13" t="n">
         <v>1.0232803717315133</v>
       </c>
-      <c r="E30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14" t="n">
+      <c r="E30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13" t="n">
         <v>434588.92</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="13" t="n">
         <v>1.0232803717315133</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="14" t="n">
+      <c r="A31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="13" t="n">
         <v>2859566.67</v>
       </c>
-      <c r="D31" s="14" t="n">
+      <c r="D31" s="13" t="n">
         <v>6.733117919961341</v>
       </c>
-      <c r="E31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14" t="n">
+      <c r="E31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13" t="n">
         <v>2859566.67</v>
       </c>
-      <c r="J31" s="14" t="n">
+      <c r="J31" s="13" t="n">
         <v>6.733117919961341</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="14" t="n">
+      <c r="A32" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <v>480334.84</v>
       </c>
-      <c r="D32" s="14" t="n">
+      <c r="D32" s="13" t="n">
         <v>1.130993430828372</v>
       </c>
-      <c r="E32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14" t="n">
+      <c r="E32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13" t="n">
         <v>480334.84</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="13" t="n">
         <v>1.130993430828372</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="14" t="n">
+      <c r="A33" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="13" t="n">
         <v>74538.63</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="13" t="n">
         <v>0.17550819522678518</v>
       </c>
-      <c r="E33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="n">
+      <c r="E33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="n">
         <v>74538.63</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J33" s="13" t="n">
         <v>0.17550819522678518</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="14" t="n">
+      <c r="A34" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" s="13" t="n">
         <v>406944.8</v>
       </c>
-      <c r="D34" s="14" t="n">
+      <c r="D34" s="13" t="n">
         <v>0.9581896984815128</v>
       </c>
-      <c r="E34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="14" t="n">
+      <c r="E34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13" t="n">
         <v>406944.8</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="13" t="n">
         <v>0.9581896984815128</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="14" t="n">
+      <c r="A35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="13" t="n">
         <v>4061202.08</v>
       </c>
-      <c r="D35" s="14" t="n">
+      <c r="D35" s="13" t="n">
         <v>9.562481192799842</v>
       </c>
-      <c r="E35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14" t="n">
+      <c r="E35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="n">
         <v>4061202.08</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J35" s="13" t="n">
         <v>9.562481192799842</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="14" t="n">
+      <c r="A36" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="13" t="n">
         <v>74164.59</v>
       </c>
-      <c r="D36" s="14" t="n">
+      <c r="D36" s="13" t="n">
         <v>0.17462748296600675</v>
       </c>
-      <c r="E36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="14" t="n">
+      <c r="E36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="n">
         <v>74164.59</v>
       </c>
-      <c r="J36" s="14" t="n">
+      <c r="J36" s="13" t="n">
         <v>0.17462748296600675</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="14" t="n">
+      <c r="A37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="13" t="n">
         <v>202964</v>
       </c>
-      <c r="D37" s="14" t="n">
+      <c r="D37" s="13" t="n">
         <v>0.4778977737585092</v>
       </c>
-      <c r="E37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="14" t="n">
+      <c r="E37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13" t="n">
         <v>202964</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="13" t="n">
         <v>0.4778977737585092</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C38" s="14" t="n">
+      <c r="A38" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="13" t="n">
         <v>89989.11</v>
       </c>
-      <c r="D38" s="14" t="n">
+      <c r="D38" s="13" t="n">
         <v>0.2118877994694113</v>
       </c>
-      <c r="E38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="14" t="n">
+      <c r="E38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="n">
         <v>89989.11</v>
       </c>
-      <c r="J38" s="14" t="n">
+      <c r="J38" s="13" t="n">
         <v>0.2118877994694113</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="14" t="n">
+      <c r="A39" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C39" s="13" t="n">
         <v>1147492.48</v>
       </c>
-      <c r="D39" s="14" t="n">
+      <c r="D39" s="13" t="n">
         <v>2.7018786661507983</v>
       </c>
-      <c r="E39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="14" t="n">
+      <c r="E39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13" t="n">
         <v>1147492.48</v>
       </c>
-      <c r="J39" s="14" t="n">
+      <c r="J39" s="13" t="n">
         <v>2.7018786661507983</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="14" t="n">
+      <c r="A40" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="13" t="n">
         <v>729695.25</v>
       </c>
-      <c r="D40" s="14" t="n">
+      <c r="D40" s="13" t="n">
         <v>1.718135903397444</v>
       </c>
-      <c r="E40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="14" t="n">
+      <c r="E40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13" t="n">
         <v>729695.25</v>
       </c>
-      <c r="J40" s="14" t="n">
+      <c r="J40" s="13" t="n">
         <v>1.718135903397444</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="14" t="n">
+      <c r="A41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="13" t="n">
         <v>64687.38</v>
       </c>
-      <c r="D41" s="14" t="n">
+      <c r="D41" s="13" t="n">
         <v>0.15231250316445633</v>
       </c>
-      <c r="E41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="14" t="n">
+      <c r="E41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="13" t="n">
         <v>64687.38</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="13" t="n">
         <v>0.15231250316445633</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="14" t="n">
+      <c r="A42" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="13" t="n">
         <v>1055892.24</v>
       </c>
-      <c r="D42" s="14" t="n">
+      <c r="D42" s="13" t="n">
         <v>2.48619730999037</v>
       </c>
-      <c r="E42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="14" t="n">
+      <c r="E42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="13" t="n">
         <v>1055892.24</v>
       </c>
-      <c r="J42" s="14" t="n">
+      <c r="J42" s="13" t="n">
         <v>2.48619730999037</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="14" t="n">
+      <c r="A43" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="13" t="n">
         <v>756300</v>
       </c>
-      <c r="D43" s="14" t="n">
+      <c r="D43" s="13" t="n">
         <v>1.7807792825011357</v>
       </c>
-      <c r="E43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14" t="n">
+      <c r="E43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13" t="n">
         <v>756300</v>
       </c>
-      <c r="J43" s="14" t="n">
+      <c r="J43" s="13" t="n">
         <v>1.7807792825011357</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>147</v>
+        <v>29</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>42470170.64</v>

--- a/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
+++ b/reports/estadisticos/Estadisticas_Inversiones JUNIO 2022.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>INVERSIONES SEGUROS AL 30 DE JUNIO DE 2022</t>
   </si>
@@ -178,6 +178,36 @@
   </si>
   <si>
     <t>FMS R</t>
+  </si>
+  <si>
+    <t>SEGUROS GENERALES, SEGUROS DE PERSONAS Y SEGUROS PREPAGO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>BIENES RAICES</t>
+  </si>
+  <si>
+    <t>CONSTRUCCION VIVIENDA</t>
+  </si>
+  <si>
+    <t>DISPONIBLE</t>
+  </si>
+  <si>
+    <t>PRESTAMOS GARANTIA</t>
+  </si>
+  <si>
+    <t>VALORES</t>
+  </si>
+  <si>
+    <t>Seguros de Personas</t>
+  </si>
+  <si>
+    <t>Seguros Generales</t>
+  </si>
+  <si>
+    <t>Seguros Prepago</t>
   </si>
   <si>
     <t>INVERSIONES POR TIPO INSTRUMENTO</t>
@@ -1265,19 +1295,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -1922,8 +1952,138 @@
         <v>15</v>
       </c>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="13" t="n">
+        <v>13653009</v>
+      </c>
+      <c r="C47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="13" t="n">
+        <v>2275501</v>
+      </c>
+      <c r="E47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>42470171</v>
+      </c>
+      <c r="G47" s="13" t="n">
+        <v>58398681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="46">
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A9:K9"/>
@@ -1960,6 +2120,16 @@
     <mergeCell ref="B34:B34"/>
     <mergeCell ref="C34:C34"/>
     <mergeCell ref="D34:D34"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A45:A45"/>
+    <mergeCell ref="B45:B45"/>
+    <mergeCell ref="C45:C45"/>
+    <mergeCell ref="D45:D45"/>
+    <mergeCell ref="E45:E45"/>
+    <mergeCell ref="F45:F45"/>
+    <mergeCell ref="G45:G45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1990,7 +2160,7 @@
   <sheetData>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2006,7 +2176,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2022,7 +2192,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2038,7 +2208,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2054,7 +2224,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
@@ -2073,37 +2243,37 @@
     <row r="12" spans="1:12">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2341,7 +2511,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2357,7 +2527,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2373,7 +2543,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2389,7 +2559,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2405,10 +2575,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2424,37 +2594,37 @@
     <row r="27" spans="1:12">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -2464,7 +2634,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2473,7 +2643,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2482,7 +2652,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2491,7 +2661,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2500,7 +2670,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>46</v>
@@ -2512,16 +2682,16 @@
     <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1">
@@ -2531,7 +2701,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2541,7 +2711,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2551,7 +2721,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2561,7 +2731,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2571,10 +2741,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -2584,19 +2754,19 @@
     <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2809,7 +2979,7 @@
   <sheetData>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2823,7 +2993,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2837,7 +3007,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2851,7 +3021,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2865,10 +3035,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -2883,7 +3053,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -2891,36 +3061,36 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>1732906.92</v>
@@ -2949,10 +3119,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>2203068.98</v>
@@ -2981,10 +3151,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>4375993.23</v>
@@ -3013,10 +3183,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>102918.73</v>
@@ -3045,10 +3215,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C17" s="13" t="n">
         <v>808004.38</v>
@@ -3077,10 +3247,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C18" s="13" t="n">
         <v>3854963.95</v>
@@ -3109,10 +3279,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C19" s="13" t="n">
         <v>94903.79</v>
@@ -3141,10 +3311,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13" t="n">
         <v>574559.05</v>
@@ -3173,10 +3343,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>3675452.76</v>
@@ -3205,10 +3375,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C22" s="13" t="n">
         <v>3493693.84</v>
@@ -3237,10 +3407,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C23" s="13" t="n">
         <v>959965.23</v>
@@ -3269,10 +3439,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C24" s="13" t="n">
         <v>2179330.41</v>
@@ -3301,10 +3471,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C25" s="13" t="n">
         <v>589694.22</v>
@@ -3333,10 +3503,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C26" s="13" t="n">
         <v>481987.83</v>
@@ -3365,10 +3535,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C27" s="13" t="n">
         <v>2534501.59</v>
@@ -3397,10 +3567,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C28" s="13" t="n">
         <v>359420.87</v>
@@ -3429,10 +3599,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C29" s="13" t="n">
         <v>2010443.87</v>
@@ -3461,10 +3631,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>434588.92</v>
@@ -3493,10 +3663,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>2859566.67</v>
@@ -3525,10 +3695,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C32" s="13" t="n">
         <v>480334.84</v>
@@ -3557,10 +3727,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C33" s="13" t="n">
         <v>74538.63</v>
@@ -3589,10 +3759,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C34" s="13" t="n">
         <v>406944.8</v>
@@ -3621,10 +3791,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C35" s="13" t="n">
         <v>4061202.08</v>
@@ -3653,10 +3823,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C36" s="13" t="n">
         <v>74164.59</v>
@@ -3685,10 +3855,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C37" s="13" t="n">
         <v>202964</v>
@@ -3717,10 +3887,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C38" s="13" t="n">
         <v>89989.11</v>
@@ -3749,10 +3919,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C39" s="13" t="n">
         <v>1147492.48</v>
@@ -3781,10 +3951,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C40" s="13" t="n">
         <v>729695.25</v>
@@ -3813,10 +3983,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C41" s="13" t="n">
         <v>64687.38</v>
@@ -3845,10 +4015,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>1055892.24</v>
@@ -3877,10 +4047,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>756300</v>
@@ -3912,7 +4082,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>42470170.64</v>
@@ -4009,7 +4179,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4024,7 +4194,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4039,7 +4209,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -4305,7 +4475,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4321,7 +4491,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -4337,7 +4507,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -4540,7 +4710,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -4548,7 +4718,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -4556,7 +4726,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -4691,7 +4861,7 @@
   <sheetData>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4701,7 +4871,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4711,7 +4881,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4721,22 +4891,22 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4744,13 +4914,13 @@
         <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C11" s="28" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E11" s="26" t="n">
         <v>0</v>
@@ -4797,7 +4967,7 @@
   <sheetData>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4805,7 +4975,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4821,21 +4991,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>0</v>
@@ -4849,7 +5019,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>0</v>
@@ -4863,7 +5033,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>17282207.78</v>
@@ -4877,7 +5047,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>0</v>
@@ -4891,7 +5061,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>3432785.16</v>
@@ -4905,7 +5075,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>15319103.31</v>
@@ -4919,7 +5089,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>0</v>
@@ -4933,7 +5103,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0</v>
@@ -4947,7 +5117,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B19" s="13" t="n">
         <v>0</v>
@@ -4961,7 +5131,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B20" s="13" t="n">
         <v>22945911.79</v>
@@ -4975,7 +5145,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B21" s="13" t="n">
         <v>0</v>
@@ -4989,7 +5159,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B22" s="13" t="n">
         <v>0</v>
@@ -5003,7 +5173,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B23" s="13" t="n">
         <v>4045302.35</v>
@@ -5017,7 +5187,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B24" s="13" t="n">
         <v>0</v>
@@ -5031,7 +5201,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B25" s="13" t="n">
         <v>0</v>
@@ -5045,7 +5215,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B26" s="13" t="n">
         <v>0</v>
@@ -5059,7 +5229,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B27" s="13" t="n">
         <v>13074033.18</v>
@@ -5073,7 +5243,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B28" s="13" t="n">
         <v>0</v>
@@ -5087,7 +5257,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>2494569.03</v>
@@ -5101,7 +5271,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B30" s="13" t="n">
         <v>0</v>
@@ -5115,7 +5285,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>0</v>
@@ -5129,7 +5299,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>2791641.33</v>
@@ -5143,7 +5313,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>0</v>
@@ -5157,7 +5327,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>0</v>
@@ -5171,7 +5341,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>1392333.04</v>
@@ -5185,7 +5355,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>0</v>
@@ -5199,7 +5369,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>7871798.41</v>
@@ -5213,7 +5383,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>0</v>
@@ -5227,7 +5397,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B39" s="13" t="n">
         <v>0</v>
@@ -5241,7 +5411,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B40" s="13" t="n">
         <v>0</v>
@@ -5255,7 +5425,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>5188218</v>
@@ -5316,7 +5486,7 @@
   <sheetData>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5330,25 +5500,25 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B11" s="29" t="n">
         <v>370</v>
@@ -5359,7 +5529,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B12" s="29" t="n">
         <v>721</v>
@@ -5370,7 +5540,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B13" s="29" t="n">
         <v>901</v>
@@ -5381,7 +5551,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B14" s="29" t="n">
         <v>4070</v>
@@ -5392,7 +5562,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B15" s="29" t="n">
         <v>360</v>
@@ -5403,7 +5573,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B16" s="29" t="n">
         <v>540</v>
@@ -5414,7 +5584,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B17" s="29" t="n">
         <v>720</v>
@@ -5425,7 +5595,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B18" s="29" t="n">
         <v>1081</v>
@@ -5436,7 +5606,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B19" s="29" t="n">
         <v>3700</v>
@@ -5447,7 +5617,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B20" s="29" t="n">
         <v>370</v>
@@ -5458,7 +5628,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B21" s="29" t="n">
         <v>400</v>
@@ -5469,7 +5639,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B22" s="29" t="n">
         <v>540</v>
@@ -5480,7 +5650,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B23" s="29" t="n">
         <v>720</v>
@@ -5491,7 +5661,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B24" s="29" t="n">
         <v>600</v>
@@ -5502,7 +5672,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B25" s="29" t="n">
         <v>2160</v>
@@ -5513,7 +5683,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B26" s="29" t="n">
         <v>1766</v>
@@ -5524,7 +5694,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B27" s="29" t="n">
         <v>1796</v>
@@ -5535,7 +5705,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B28" s="29" t="n">
         <v>1797</v>
@@ -5546,7 +5716,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B29" s="29" t="n">
         <v>3653</v>
@@ -5557,7 +5727,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B30" s="29" t="n">
         <v>360</v>
@@ -5568,7 +5738,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B31" s="29" t="n">
         <v>390</v>
@@ -5579,7 +5749,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B32" s="29" t="n">
         <v>391</v>
@@ -5590,7 +5760,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B33" s="29" t="n">
         <v>392</v>
@@ -5601,7 +5771,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B34" s="29" t="n">
         <v>1080</v>
@@ -5612,7 +5782,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B35" s="29" t="n">
         <v>1200</v>
@@ -5623,7 +5793,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B36" s="29" t="n">
         <v>362</v>
@@ -5634,7 +5804,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B37" s="29" t="n">
         <v>363</v>
@@ -5645,7 +5815,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B38" s="29" t="n">
         <v>721</v>
@@ -5656,7 +5826,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B39" s="29" t="n">
         <v>390</v>
@@ -5667,7 +5837,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B40" s="29" t="n">
         <v>721</v>
@@ -5678,7 +5848,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B41" s="29" t="n">
         <v>1080</v>
@@ -5689,7 +5859,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B42" s="29" t="n">
         <v>92</v>
@@ -5700,7 +5870,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B43" s="29" t="n">
         <v>4319</v>
@@ -5711,7 +5881,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B44" s="29" t="n">
         <v>4320</v>
@@ -5722,7 +5892,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B45" s="29" t="n">
         <v>3607</v>
@@ -5733,7 +5903,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B46" s="29" t="n">
         <v>3614</v>
@@ -5749,7 +5919,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -5763,25 +5933,25 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B54" s="29" t="n">
         <v>126</v>
@@ -5792,7 +5962,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B55" s="29" t="n">
         <v>676</v>
@@ -5803,7 +5973,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B56" s="29" t="n">
         <v>886</v>
@@ -5814,7 +5984,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B57" s="29" t="n">
         <v>1845</v>
@@ -5825,7 +5995,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B58" s="29" t="n">
         <v>50</v>
@@ -5836,7 +6006,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B59" s="29" t="n">
         <v>293</v>
@@ -5847,7 +6017,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B60" s="29" t="n">
         <v>502</v>
@@ -5858,7 +6028,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B61" s="29" t="n">
         <v>1013</v>
@@ -5869,7 +6039,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B62" s="29" t="n">
         <v>1054</v>
@@ -5880,7 +6050,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B63" s="29" t="n">
         <v>263</v>
@@ -5891,7 +6061,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B64" s="29" t="n">
         <v>273</v>
@@ -5902,7 +6072,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B65" s="29" t="n">
         <v>300</v>
@@ -5913,7 +6083,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B66" s="29" t="n">
         <v>509</v>
@@ -5924,7 +6094,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B67" s="29" t="n">
         <v>138</v>
@@ -5935,7 +6105,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B68" s="29" t="n">
         <v>1482</v>
@@ -5946,7 +6116,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B69" s="29" t="n">
         <v>670</v>
@@ -5957,7 +6127,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B70" s="29" t="n">
         <v>721</v>
@@ -5968,7 +6138,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B71" s="29" t="n">
         <v>729</v>
@@ -5979,7 +6149,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B72" s="29" t="n">
         <v>747</v>
@@ -5990,7 +6160,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B73" s="29" t="n">
         <v>966</v>
@@ -6001,7 +6171,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B74" s="29" t="n">
         <v>176</v>
@@ -6012,7 +6182,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B75" s="29" t="n">
         <v>182</v>
@@ -6023,7 +6193,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B76" s="29" t="n">
         <v>211</v>
@@ -6034,7 +6204,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B77" s="29" t="n">
         <v>321</v>
@@ -6045,7 +6215,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B78" s="29" t="n">
         <v>326</v>
@@ -6056,7 +6226,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B79" s="29" t="n">
         <v>278</v>
@@ -6067,7 +6237,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B80" s="29" t="n">
         <v>270</v>
@@ -6078,7 +6248,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B81" s="29" t="n">
         <v>644</v>
@@ -6089,7 +6259,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B82" s="29" t="n">
         <v>264</v>
@@ -6100,7 +6270,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B83" s="29" t="n">
         <v>561</v>
@@ -6111,7 +6281,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B84" s="29" t="n">
         <v>1046</v>
@@ -6122,7 +6292,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B85" s="29" t="n">
         <v>1</v>
@@ -6133,7 +6303,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B86" s="29" t="n">
         <v>2304</v>
@@ -6144,7 +6314,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B87" s="29" t="n">
         <v>2309</v>
@@ -6155,7 +6325,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B88" s="29" t="n">
         <v>2310</v>
@@ -6166,7 +6336,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B89" s="29" t="n">
         <v>2311</v>
@@ -6177,7 +6347,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B90" s="29" t="n">
         <v>2316</v>
@@ -6188,7 +6358,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B91" s="29" t="n">
         <v>2321</v>
@@ -6244,7 +6414,7 @@
   <sheetData>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6258,7 +6428,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6272,7 +6442,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6286,7 +6456,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6300,10 +6470,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>35</v>
@@ -6318,7 +6488,7 @@
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -6326,36 +6496,36 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>1732906.92</v>
@@ -6384,10 +6554,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>2203068.98</v>
@@ -6416,10 +6586,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="9" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>4375993.23</v>
@@ -6448,10 +6618,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>102918.73</v>
@@ -6480,10 +6650,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C17" s="13" t="n">
         <v>808004.38</v>
@@ -6512,10 +6682,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C18" s="13" t="n">
         <v>3854963.95</v>
@@ -6544,10 +6714,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C19" s="13" t="n">
         <v>94903.79</v>
@@ -6576,10 +6746,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C20" s="13" t="n">
         <v>574559.05</v>
@@ -6608,10 +6778,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>3675452.76</v>
@@ -6640,10 +6810,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C22" s="13" t="n">
         <v>3493693.84</v>
@@ -6672,10 +6842,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C23" s="13" t="n">
         <v>959965.23</v>
@@ -6704,10 +6874,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C24" s="13" t="n">
         <v>2179330.41</v>
@@ -6736,10 +6906,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C25" s="13" t="n">
         <v>589694.22</v>
@@ -6768,10 +6938,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C26" s="13" t="n">
         <v>481987.83</v>
@@ -6800,10 +6970,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C27" s="13" t="n">
         <v>2534501.59</v>
@@ -6832,10 +7002,10 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C28" s="13" t="n">
         <v>359420.87</v>
@@ -6864,10 +7034,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C29" s="13" t="n">
         <v>2010443.87</v>
@@ -6896,10 +7066,10 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C30" s="13" t="n">
         <v>434588.92</v>
@@ -6928,10 +7098,10 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C31" s="13" t="n">
         <v>2859566.67</v>
@@ -6960,10 +7130,10 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="9" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C32" s="13" t="n">
         <v>480334.84</v>
@@ -6992,10 +7162,10 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C33" s="13" t="n">
         <v>74538.63</v>
@@ -7024,10 +7194,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C34" s="13" t="n">
         <v>406944.8</v>
@@ -7056,10 +7226,10 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C35" s="13" t="n">
         <v>4061202.08</v>
@@ -7088,10 +7258,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C36" s="13" t="n">
         <v>74164.59</v>
@@ -7120,10 +7290,10 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C37" s="13" t="n">
         <v>202964</v>
@@ -7152,10 +7322,10 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C38" s="13" t="n">
         <v>89989.11</v>
@@ -7184,10 +7354,10 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C39" s="13" t="n">
         <v>1147492.48</v>
@@ -7216,10 +7386,10 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C40" s="13" t="n">
         <v>729695.25</v>
@@ -7248,10 +7418,10 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C41" s="13" t="n">
         <v>64687.38</v>
@@ -7280,10 +7450,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C42" s="13" t="n">
         <v>1055892.24</v>
@@ -7312,10 +7482,10 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C43" s="13" t="n">
         <v>756300</v>
@@ -7347,7 +7517,7 @@
         <v>29</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C44" s="26" t="n">
         <v>42470170.64</v>
